--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4861,7 +4861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4869,13 +4869,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4887,13 +4900,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5174,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,7 +5253,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5191,7 +5191,7 @@
   <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A18:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5376,7 +5376,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5417,7 +5417,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5499,7 +5499,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5622,7 +5622,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5663,7 +5663,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -5704,7 +5704,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -5745,7 +5745,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -5786,7 +5786,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -5827,7 +5827,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -5909,7 +5909,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -5950,7 +5950,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6032,7 +6032,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6073,7 +6073,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="suggestions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1615">
   <si>
     <t>0007 power up</t>
   </si>
@@ -4855,6 +4856,15 @@
   </si>
   <si>
     <t>1845 good to be home</t>
+  </si>
+  <si>
+    <t>dick long</t>
+  </si>
+  <si>
+    <t>daddy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dg1mxlzEP3Q&amp;list=PL68FD0D7F63715384</t>
   </si>
 </sst>
 </file>
@@ -5190,13 +5200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A18:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -5212,7 +5222,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B1" t="s">
@@ -5256,7 +5266,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C2" t="s">
@@ -5297,7 +5307,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
@@ -5338,7 +5348,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C4" t="s">
@@ -5379,7 +5389,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
@@ -5420,7 +5430,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
@@ -5461,8 +5471,8 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>88</v>
+      <c r="B7" s="1" t="s">
+        <v>1612</v>
       </c>
       <c r="C7" t="s">
         <v>169</v>
@@ -5502,8 +5512,8 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>170</v>
@@ -5543,8 +5553,8 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>90</v>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>171</v>
@@ -5584,8 +5594,8 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>91</v>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>172</v>
@@ -5625,8 +5635,8 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>173</v>
@@ -5666,8 +5676,8 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>93</v>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>174</v>
@@ -5707,8 +5717,8 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>94</v>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>175</v>
@@ -5748,8 +5758,8 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>95</v>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>176</v>
@@ -5789,8 +5799,8 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>96</v>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -5830,8 +5840,8 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>97</v>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -5871,8 +5881,8 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>98</v>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>179</v>
@@ -5912,8 +5922,8 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>99</v>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>180</v>
@@ -5953,8 +5963,8 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>100</v>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -5994,8 +6004,8 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -6035,8 +6045,8 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>102</v>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>183</v>
@@ -6076,8 +6086,8 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>103</v>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -6114,11 +6124,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>104</v>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>185</v>
@@ -6155,11 +6165,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>105</v>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>186</v>
@@ -6196,11 +6206,11 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>106</v>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>187</v>
@@ -6237,11 +6247,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>107</v>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>188</v>
@@ -6278,11 +6288,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>108</v>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>189</v>
@@ -6319,11 +6329,11 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>109</v>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C28" t="s">
         <v>190</v>
@@ -6360,11 +6370,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>110</v>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>191</v>
@@ -6401,11 +6411,11 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>111</v>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>192</v>
@@ -6442,11 +6452,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>112</v>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>193</v>
@@ -6483,11 +6493,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>113</v>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>194</v>
@@ -6524,11 +6534,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>114</v>
+      <c r="B33" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>195</v>
@@ -6565,11 +6575,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>115</v>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C34" t="s">
         <v>196</v>
@@ -6606,11 +6616,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>116</v>
+      <c r="B35" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>197</v>
@@ -6644,11 +6654,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>117</v>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>198</v>
@@ -6682,11 +6692,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>118</v>
+      <c r="B37" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>199</v>
@@ -6720,11 +6730,11 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>119</v>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>200</v>
@@ -6758,11 +6768,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>120</v>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>201</v>
@@ -6796,11 +6806,11 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>121</v>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C40" t="s">
         <v>202</v>
@@ -6834,11 +6844,11 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>122</v>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>203</v>
@@ -6872,11 +6882,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>123</v>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C42" t="s">
         <v>204</v>
@@ -6910,11 +6920,11 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>124</v>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>205</v>
@@ -6948,11 +6958,11 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>125</v>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C44" t="s">
         <v>206</v>
@@ -6986,11 +6996,11 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>126</v>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C45" t="s">
         <v>207</v>
@@ -7024,11 +7034,11 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>127</v>
+      <c r="B46" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C46" t="s">
         <v>208</v>
@@ -7062,11 +7072,11 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>128</v>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>209</v>
@@ -7100,11 +7110,11 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>129</v>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>210</v>
@@ -7138,11 +7148,11 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>130</v>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C49" t="s">
         <v>211</v>
@@ -7176,11 +7186,11 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>131</v>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C50" t="s">
         <v>212</v>
@@ -7214,11 +7224,11 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>132</v>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>213</v>
@@ -7252,11 +7262,11 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>133</v>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C52" t="s">
         <v>214</v>
@@ -7290,11 +7300,11 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>134</v>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>215</v>
@@ -7328,11 +7338,11 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>135</v>
+      <c r="B54" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C54" t="s">
         <v>216</v>
@@ -7366,11 +7376,11 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>136</v>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C55" t="s">
         <v>217</v>
@@ -7404,11 +7414,11 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>137</v>
+      <c r="B56" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C56" t="s">
         <v>218</v>
@@ -7442,11 +7452,11 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>138</v>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C57" t="s">
         <v>219</v>
@@ -7480,11 +7490,11 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
+      <c r="B58" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C58" t="s">
         <v>220</v>
@@ -7518,11 +7528,11 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>140</v>
+      <c r="B59" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C59" t="s">
         <v>221</v>
@@ -7556,11 +7566,11 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>141</v>
+      <c r="B60" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C60" t="s">
         <v>222</v>
@@ -7594,11 +7604,11 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>142</v>
+      <c r="B61" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C61" t="s">
         <v>223</v>
@@ -7632,11 +7642,11 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>143</v>
+      <c r="B62" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>224</v>
@@ -7670,11 +7680,11 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>144</v>
+      <c r="B63" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>225</v>
@@ -7708,11 +7718,11 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>145</v>
+      <c r="B64" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C64" t="s">
         <v>226</v>
@@ -7746,11 +7756,11 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>146</v>
+      <c r="B65" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>227</v>
@@ -7784,11 +7794,11 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>147</v>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>228</v>
@@ -7822,11 +7832,11 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>148</v>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C67" t="s">
         <v>229</v>
@@ -7860,11 +7870,11 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>149</v>
+      <c r="B68" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C68" t="s">
         <v>230</v>
@@ -7898,11 +7908,11 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>150</v>
+      <c r="B69" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C69" t="s">
         <v>231</v>
@@ -7936,11 +7946,11 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>151</v>
+      <c r="B70" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C70" t="s">
         <v>232</v>
@@ -7974,11 +7984,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>152</v>
+      <c r="B71" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -8012,11 +8022,11 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>153</v>
+      <c r="B72" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C72" t="s">
         <v>234</v>
@@ -8050,11 +8060,11 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>154</v>
+      <c r="B73" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C73" t="s">
         <v>235</v>
@@ -8088,11 +8098,11 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>155</v>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C74" t="s">
         <v>236</v>
@@ -8126,11 +8136,11 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>156</v>
+      <c r="B75" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C75" t="s">
         <v>237</v>
@@ -8164,11 +8174,11 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>157</v>
+      <c r="B76" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C76" t="s">
         <v>238</v>
@@ -8202,11 +8212,11 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>158</v>
+      <c r="B77" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C77" t="s">
         <v>239</v>
@@ -8240,11 +8250,11 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>159</v>
+      <c r="B78" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>240</v>
@@ -8278,11 +8288,11 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
+      <c r="B79" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="s">
         <v>241</v>
@@ -8316,11 +8326,11 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>161</v>
+      <c r="B80" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>242</v>
@@ -8354,8 +8364,11 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C81" t="s">
         <v>243</v>
@@ -8389,7 +8402,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C82" t="s">
@@ -8424,7 +8437,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C83" t="s">
@@ -10443,6 +10456,29 @@
     <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
         <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1614</v>
       </c>
     </row>
   </sheetData>

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5225,10 +5225,10 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D1" t="s">
@@ -5269,7 +5269,7 @@
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D2" t="s">
@@ -5310,7 +5310,7 @@
       <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D3" t="s">
@@ -5351,7 +5351,7 @@
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D4" t="s">
@@ -5392,7 +5392,7 @@
       <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D5" t="s">
@@ -5433,7 +5433,7 @@
       <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D6" t="s">
@@ -5474,7 +5474,7 @@
       <c r="B7" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D7" t="s">
@@ -5515,7 +5515,7 @@
       <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D8" t="s">
@@ -5556,7 +5556,7 @@
       <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D9" t="s">
@@ -5597,7 +5597,7 @@
       <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D10" t="s">
@@ -5638,7 +5638,7 @@
       <c r="B11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D11" t="s">
@@ -5679,7 +5679,7 @@
       <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D12" t="s">
@@ -5720,7 +5720,7 @@
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D13" t="s">
@@ -5761,7 +5761,7 @@
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D14" t="s">
@@ -5802,7 +5802,7 @@
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D15" t="s">
@@ -5843,7 +5843,7 @@
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D16" t="s">
@@ -5884,7 +5884,7 @@
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D17" t="s">
@@ -5925,7 +5925,7 @@
       <c r="B18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D18" t="s">
@@ -5966,7 +5966,7 @@
       <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D19" t="s">
@@ -6007,7 +6007,7 @@
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D20" t="s">
@@ -6048,7 +6048,7 @@
       <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D21" t="s">
@@ -6089,7 +6089,7 @@
       <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D22" t="s">
@@ -6130,7 +6130,7 @@
       <c r="B23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D23" t="s">
@@ -6171,7 +6171,7 @@
       <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D24" t="s">
@@ -6212,7 +6212,7 @@
       <c r="B25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D25" t="s">
@@ -6253,7 +6253,7 @@
       <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D26" t="s">
@@ -6294,7 +6294,7 @@
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D27" t="s">
@@ -6335,7 +6335,7 @@
       <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D28" t="s">
@@ -6376,7 +6376,7 @@
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D29" t="s">
@@ -6417,7 +6417,7 @@
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D30" t="s">
@@ -6458,7 +6458,7 @@
       <c r="B31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D31" t="s">
@@ -6499,7 +6499,7 @@
       <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D32" t="s">
@@ -6540,7 +6540,7 @@
       <c r="B33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D33" t="s">
@@ -6581,7 +6581,7 @@
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D34" t="s">
@@ -6622,7 +6622,7 @@
       <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D35" t="s">
@@ -6660,7 +6660,7 @@
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D36" t="s">
@@ -6698,7 +6698,7 @@
       <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D37" t="s">
@@ -6736,7 +6736,7 @@
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D38" t="s">
@@ -6774,7 +6774,7 @@
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D39" t="s">
@@ -6812,7 +6812,7 @@
       <c r="B40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D40" t="s">
@@ -6850,7 +6850,7 @@
       <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D41" t="s">
@@ -6888,7 +6888,7 @@
       <c r="B42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D42" t="s">
@@ -6926,7 +6926,7 @@
       <c r="B43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D43" t="s">
@@ -6964,7 +6964,7 @@
       <c r="B44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D44" t="s">
@@ -7002,7 +7002,7 @@
       <c r="B45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D45" t="s">
@@ -7040,7 +7040,7 @@
       <c r="B46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D46" t="s">
@@ -7078,7 +7078,7 @@
       <c r="B47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D47" t="s">
@@ -7116,7 +7116,7 @@
       <c r="B48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D48" t="s">
@@ -7154,7 +7154,7 @@
       <c r="B49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D49" t="s">
@@ -7192,7 +7192,7 @@
       <c r="B50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D50" t="s">
@@ -7230,7 +7230,7 @@
       <c r="B51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D51" t="s">
@@ -7268,7 +7268,7 @@
       <c r="B52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D52" t="s">
@@ -7306,7 +7306,7 @@
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D53" t="s">
@@ -7344,7 +7344,7 @@
       <c r="B54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D54" t="s">
@@ -7382,7 +7382,7 @@
       <c r="B55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D55" t="s">
@@ -7420,7 +7420,7 @@
       <c r="B56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D56" t="s">
@@ -7458,7 +7458,7 @@
       <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D57" t="s">
@@ -7496,8 +7496,8 @@
       <c r="B58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C58" t="s">
-        <v>220</v>
+      <c r="C58" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D58" t="s">
         <v>305</v>
@@ -7534,8 +7534,8 @@
       <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C59" t="s">
-        <v>221</v>
+      <c r="C59" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D59" t="s">
         <v>306</v>
@@ -7572,7 +7572,7 @@
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D60" t="s">
@@ -7610,7 +7610,7 @@
       <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D61" t="s">
@@ -7648,7 +7648,7 @@
       <c r="B62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D62" t="s">
@@ -7686,7 +7686,7 @@
       <c r="B63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D63" t="s">
@@ -7724,7 +7724,7 @@
       <c r="B64" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D64" t="s">
@@ -7762,7 +7762,7 @@
       <c r="B65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D65" t="s">
@@ -7800,7 +7800,7 @@
       <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D66" t="s">
@@ -7838,7 +7838,7 @@
       <c r="B67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D67" t="s">
@@ -7876,7 +7876,7 @@
       <c r="B68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D68" t="s">
@@ -7914,7 +7914,7 @@
       <c r="B69" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D69" t="s">
@@ -7952,7 +7952,7 @@
       <c r="B70" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D70" t="s">
@@ -7990,7 +7990,7 @@
       <c r="B71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D71" t="s">
@@ -8028,7 +8028,7 @@
       <c r="B72" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D72" t="s">
@@ -8066,7 +8066,7 @@
       <c r="B73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D73" t="s">
@@ -8104,7 +8104,7 @@
       <c r="B74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D74" t="s">
@@ -8142,7 +8142,7 @@
       <c r="B75" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D75" t="s">
@@ -8180,7 +8180,7 @@
       <c r="B76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D76" t="s">
@@ -8218,7 +8218,7 @@
       <c r="B77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D77" t="s">
@@ -8256,7 +8256,7 @@
       <c r="B78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D78" t="s">
@@ -8294,7 +8294,7 @@
       <c r="B79" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D79" t="s">
@@ -8332,7 +8332,7 @@
       <c r="B80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D80" t="s">
@@ -8370,7 +8370,7 @@
       <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D81" t="s">
@@ -8405,7 +8405,7 @@
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D82" t="s">
@@ -8440,7 +8440,7 @@
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D83" t="s">
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D84" t="s">
@@ -8504,7 +8504,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D85" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4871,7 +4871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4887,8 +4887,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4900,8 +4908,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4909,17 +4922,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5198,15 +5229,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -5221,7 +5252,7 @@
     <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -5261,8 +5292,9 @@
       <c r="M1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5302,8 +5334,9 @@
       <c r="M2" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5343,8 +5376,9 @@
       <c r="M3" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5384,8 +5418,9 @@
       <c r="M4" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5425,8 +5460,9 @@
       <c r="M5" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5466,8 +5502,9 @@
       <c r="M6" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5507,8 +5544,9 @@
       <c r="M7" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5548,8 +5586,9 @@
       <c r="M8" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5589,8 +5628,9 @@
       <c r="M9" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5630,8 +5670,9 @@
       <c r="M10" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5671,8 +5712,9 @@
       <c r="M11" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5712,8 +5754,9 @@
       <c r="M12" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5753,8 +5796,9 @@
       <c r="M13" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5794,8 +5838,9 @@
       <c r="M14" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5835,8 +5880,9 @@
       <c r="M15" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5876,8 +5922,9 @@
       <c r="M16" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5917,8 +5964,9 @@
       <c r="M17" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5958,8 +6006,9 @@
       <c r="M18" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5999,8 +6048,9 @@
       <c r="M19" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6040,8 +6090,9 @@
       <c r="M20" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6081,8 +6132,9 @@
       <c r="M21" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6122,8 +6174,9 @@
       <c r="M22" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6163,8 +6216,9 @@
       <c r="M23" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6204,8 +6258,9 @@
       <c r="M24" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6245,8 +6300,9 @@
       <c r="M25" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6286,8 +6342,9 @@
       <c r="M26" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6327,8 +6384,9 @@
       <c r="M27" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6368,8 +6426,9 @@
       <c r="M28" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6409,8 +6468,9 @@
       <c r="M29" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6450,8 +6510,9 @@
       <c r="M30" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6491,8 +6552,9 @@
       <c r="M31" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -6532,8 +6594,9 @@
       <c r="M32" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -6573,8 +6636,9 @@
       <c r="M33" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -6614,8 +6678,9 @@
       <c r="M34" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -6652,8 +6717,9 @@
       <c r="M35" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -6690,8 +6756,9 @@
       <c r="M36" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -6728,8 +6795,9 @@
       <c r="M37" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6766,8 +6834,9 @@
       <c r="M38" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -6804,8 +6873,9 @@
       <c r="M39" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6842,8 +6912,9 @@
       <c r="M40" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -6880,8 +6951,9 @@
       <c r="M41" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6918,8 +6990,9 @@
       <c r="M42" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6956,8 +7029,9 @@
       <c r="M43" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -6994,8 +7068,9 @@
       <c r="M44" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -7032,8 +7107,9 @@
       <c r="M45" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -7070,8 +7146,9 @@
       <c r="M46" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -7108,8 +7185,9 @@
       <c r="M47" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -7146,8 +7224,9 @@
       <c r="M48" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -7184,8 +7263,9 @@
       <c r="M49" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -7222,8 +7302,9 @@
       <c r="M50" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -7260,8 +7341,9 @@
       <c r="M51" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -7298,8 +7380,9 @@
       <c r="M52" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -7336,8 +7419,9 @@
       <c r="M53" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -7374,8 +7458,9 @@
       <c r="M54" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -7412,8 +7497,9 @@
       <c r="M55" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -7450,8 +7536,9 @@
       <c r="M56" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -7488,8 +7575,9 @@
       <c r="M57" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -7526,8 +7614,9 @@
       <c r="M58" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -7564,8 +7653,9 @@
       <c r="M59" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -7602,8 +7692,9 @@
       <c r="M60" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -7640,8 +7731,9 @@
       <c r="M61" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -7678,8 +7770,9 @@
       <c r="M62" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -7716,8 +7809,9 @@
       <c r="M63" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -7754,8 +7848,9 @@
       <c r="M64" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -7792,8 +7887,9 @@
       <c r="M65" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -7830,8 +7926,9 @@
       <c r="M66" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -7868,8 +7965,9 @@
       <c r="M67" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -7906,8 +8004,9 @@
       <c r="M68" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -7944,8 +8043,9 @@
       <c r="M69" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -7982,8 +8082,9 @@
       <c r="M70" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -8020,8 +8121,9 @@
       <c r="M71" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -8058,8 +8160,9 @@
       <c r="M72" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -8096,8 +8199,9 @@
       <c r="M73" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -8134,8 +8238,9 @@
       <c r="M74" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -8172,8 +8277,9 @@
       <c r="M75" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -8210,8 +8316,9 @@
       <c r="M76" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -8248,8 +8355,9 @@
       <c r="M77" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -8286,8 +8394,9 @@
       <c r="M78" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -8324,8 +8433,9 @@
       <c r="M79" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -8362,8 +8472,9 @@
       <c r="M80" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -8400,8 +8511,9 @@
       <c r="M81" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -8435,8 +8547,9 @@
       <c r="M82" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -8470,8 +8583,9 @@
       <c r="M83" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>246</v>
       </c>
@@ -8502,8 +8616,9 @@
       <c r="M84" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>247</v>
       </c>
@@ -8534,8 +8649,9 @@
       <c r="M85" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>333</v>
       </c>
@@ -8563,8 +8679,9 @@
       <c r="M86" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>334</v>
       </c>
@@ -8592,8 +8709,9 @@
       <c r="M87" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -8621,8 +8739,9 @@
       <c r="M88" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>336</v>
       </c>
@@ -8647,8 +8766,9 @@
       <c r="K89" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>337</v>
       </c>
@@ -8673,8 +8793,9 @@
       <c r="K90" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>338</v>
       </c>
@@ -8699,8 +8820,9 @@
       <c r="K91" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>339</v>
       </c>
@@ -8725,8 +8847,9 @@
       <c r="K92" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>340</v>
       </c>
@@ -8751,8 +8874,9 @@
       <c r="K93" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>341</v>
       </c>
@@ -8777,8 +8901,9 @@
       <c r="K94" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>342</v>
       </c>
@@ -8803,8 +8928,9 @@
       <c r="K95" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>343</v>
       </c>
@@ -8829,8 +8955,9 @@
       <c r="K96" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>344</v>
       </c>
@@ -8855,8 +8982,9 @@
       <c r="K97" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>345</v>
       </c>
@@ -8881,8 +9009,9 @@
       <c r="K98" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>346</v>
       </c>
@@ -8907,8 +9036,9 @@
       <c r="K99" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>347</v>
       </c>
@@ -8933,8 +9063,9 @@
       <c r="K100" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>348</v>
       </c>
@@ -8959,8 +9090,9 @@
       <c r="K101" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>349</v>
       </c>
@@ -8985,8 +9117,9 @@
       <c r="K102" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>350</v>
       </c>
@@ -9011,8 +9144,9 @@
       <c r="K103" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>351</v>
       </c>
@@ -9037,8 +9171,9 @@
       <c r="K104" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>352</v>
       </c>
@@ -9063,8 +9198,9 @@
       <c r="K105" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>353</v>
       </c>
@@ -9089,8 +9225,9 @@
       <c r="K106" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>354</v>
       </c>
@@ -9115,8 +9252,9 @@
       <c r="K107" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>355</v>
       </c>
@@ -9141,8 +9279,9 @@
       <c r="K108" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>356</v>
       </c>
@@ -9167,8 +9306,9 @@
       <c r="K109" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>465</v>
       </c>
@@ -9190,8 +9330,9 @@
       <c r="K110" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>466</v>
       </c>
@@ -9213,8 +9354,9 @@
       <c r="K111" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>467</v>
       </c>
@@ -9236,8 +9378,9 @@
       <c r="K112" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>468</v>
       </c>
@@ -9259,8 +9402,9 @@
       <c r="K113" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>469</v>
       </c>
@@ -9282,8 +9426,9 @@
       <c r="K114" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>470</v>
       </c>
@@ -9305,8 +9450,9 @@
       <c r="K115" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>471</v>
       </c>
@@ -9328,8 +9474,9 @@
       <c r="K116" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>472</v>
       </c>
@@ -9351,8 +9498,9 @@
       <c r="K117" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>473</v>
       </c>
@@ -9374,8 +9522,9 @@
       <c r="K118" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
         <v>474</v>
       </c>
@@ -9397,8 +9546,9 @@
       <c r="K119" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>475</v>
       </c>
@@ -9420,8 +9570,9 @@
       <c r="K120" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>476</v>
       </c>
@@ -9443,8 +9594,9 @@
       <c r="K121" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>477</v>
       </c>
@@ -9466,8 +9618,9 @@
       <c r="K122" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>478</v>
       </c>
@@ -9489,8 +9642,9 @@
       <c r="K123" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>479</v>
       </c>
@@ -9512,8 +9666,9 @@
       <c r="K124" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>480</v>
       </c>
@@ -9535,8 +9690,9 @@
       <c r="K125" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>481</v>
       </c>
@@ -9558,8 +9714,9 @@
       <c r="K126" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>482</v>
       </c>
@@ -9581,8 +9738,9 @@
       <c r="K127" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>483</v>
       </c>
@@ -9604,8 +9762,9 @@
       <c r="K128" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>484</v>
       </c>
@@ -9627,8 +9786,9 @@
       <c r="K129" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N129" s="2"/>
+    </row>
+    <row r="130" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>485</v>
       </c>
@@ -9650,8 +9810,9 @@
       <c r="K130" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>486</v>
       </c>
@@ -9673,8 +9834,9 @@
       <c r="K131" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>487</v>
       </c>
@@ -9696,8 +9858,9 @@
       <c r="K132" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>488</v>
       </c>
@@ -9719,8 +9882,9 @@
       <c r="K133" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>489</v>
       </c>
@@ -9742,8 +9906,9 @@
       <c r="K134" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>490</v>
       </c>
@@ -9765,8 +9930,9 @@
       <c r="K135" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>491</v>
       </c>
@@ -9788,8 +9954,9 @@
       <c r="K136" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>492</v>
       </c>
@@ -9811,8 +9978,9 @@
       <c r="K137" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
         <v>493</v>
       </c>
@@ -9834,8 +10002,9 @@
       <c r="K138" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>494</v>
       </c>
@@ -9857,8 +10026,9 @@
       <c r="K139" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>495</v>
       </c>
@@ -9880,8 +10050,9 @@
       <c r="K140" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>496</v>
       </c>
@@ -9903,8 +10074,9 @@
       <c r="K141" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>497</v>
       </c>
@@ -9923,8 +10095,9 @@
       <c r="K142" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>498</v>
       </c>
@@ -9943,8 +10116,9 @@
       <c r="K143" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>499</v>
       </c>
@@ -9963,8 +10137,9 @@
       <c r="K144" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="145" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>500</v>
       </c>
@@ -9983,8 +10158,9 @@
       <c r="K145" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="146" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
         <v>501</v>
       </c>
@@ -10003,8 +10179,9 @@
       <c r="K146" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="147" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
         <v>502</v>
       </c>
@@ -10023,8 +10200,9 @@
       <c r="K147" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="148" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>503</v>
       </c>
@@ -10040,8 +10218,9 @@
       <c r="K148" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="149" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>504</v>
       </c>
@@ -10057,8 +10236,9 @@
       <c r="K149" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="150" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>505</v>
       </c>
@@ -10074,8 +10254,9 @@
       <c r="K150" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="151" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
         <v>506</v>
       </c>
@@ -10091,8 +10272,9 @@
       <c r="K151" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="152" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
         <v>952</v>
       </c>
@@ -10102,8 +10284,9 @@
       <c r="K152" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
         <v>953</v>
       </c>
@@ -10113,8 +10296,9 @@
       <c r="K153" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="154" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
         <v>954</v>
       </c>
@@ -10124,8 +10308,9 @@
       <c r="K154" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="155" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N154" s="2"/>
+    </row>
+    <row r="155" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
         <v>955</v>
       </c>
@@ -10135,8 +10320,9 @@
       <c r="K155" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="156" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N155" s="2"/>
+    </row>
+    <row r="156" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
         <v>956</v>
       </c>
@@ -10146,8 +10332,9 @@
       <c r="K156" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="157" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N156" s="2"/>
+    </row>
+    <row r="157" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
         <v>957</v>
       </c>
@@ -10157,8 +10344,9 @@
       <c r="K157" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="158" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N157" s="2"/>
+    </row>
+    <row r="158" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
         <v>958</v>
       </c>
@@ -10168,8 +10356,9 @@
       <c r="K158" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="159" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N158" s="2"/>
+    </row>
+    <row r="159" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
         <v>959</v>
       </c>
@@ -10179,8 +10368,9 @@
       <c r="K159" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="160" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="N159" s="2"/>
+    </row>
+    <row r="160" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
         <v>960</v>
       </c>
@@ -10190,8 +10380,9 @@
       <c r="K160" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N160" s="2"/>
+    </row>
+    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
         <v>961</v>
       </c>
@@ -10201,8 +10392,9 @@
       <c r="K161" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N161" s="2"/>
+    </row>
+    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
         <v>962</v>
       </c>
@@ -10212,8 +10404,9 @@
       <c r="K162" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N162" s="2"/>
+    </row>
+    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
         <v>963</v>
       </c>
@@ -10223,8 +10416,9 @@
       <c r="K163" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N163" s="2"/>
+    </row>
+    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
         <v>964</v>
       </c>
@@ -10234,8 +10428,9 @@
       <c r="K164" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N164" s="2"/>
+    </row>
+    <row r="165" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H165" t="s">
         <v>965</v>
       </c>
@@ -10245,217 +10440,313 @@
       <c r="K165" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N165" s="2"/>
+    </row>
+    <row r="166" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H166" t="s">
         <v>966</v>
       </c>
       <c r="K166" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N166" s="2"/>
+    </row>
+    <row r="167" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H167" t="s">
         <v>967</v>
       </c>
       <c r="K167" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N167" s="2"/>
+    </row>
+    <row r="168" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H168" t="s">
         <v>968</v>
       </c>
       <c r="K168" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N168" s="2"/>
+    </row>
+    <row r="169" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H169" t="s">
         <v>969</v>
       </c>
       <c r="K169" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N169" s="2"/>
+    </row>
+    <row r="170" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H170" t="s">
         <v>970</v>
       </c>
       <c r="K170" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N170" s="2"/>
+    </row>
+    <row r="171" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H171" t="s">
         <v>971</v>
       </c>
       <c r="K171" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N171" s="2"/>
+    </row>
+    <row r="172" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H172" t="s">
         <v>972</v>
       </c>
       <c r="K172" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N172" s="2"/>
+    </row>
+    <row r="173" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H173" t="s">
         <v>973</v>
       </c>
       <c r="K173" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N173" s="2"/>
+    </row>
+    <row r="174" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H174" t="s">
         <v>974</v>
       </c>
       <c r="K174" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N174" s="2"/>
+    </row>
+    <row r="175" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H175" t="s">
         <v>975</v>
       </c>
       <c r="K175" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N175" s="2"/>
+    </row>
+    <row r="176" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H176" t="s">
         <v>976</v>
       </c>
       <c r="K176" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N176" s="2"/>
+    </row>
+    <row r="177" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H177" t="s">
         <v>977</v>
       </c>
       <c r="K177" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N177" s="2"/>
+    </row>
+    <row r="178" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
         <v>978</v>
       </c>
       <c r="K178" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N178" s="2"/>
+    </row>
+    <row r="179" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
         <v>979</v>
       </c>
       <c r="K179" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N179" s="2"/>
+    </row>
+    <row r="180" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N180" s="2"/>
+    </row>
+    <row r="181" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H181" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N181" s="2"/>
+    </row>
+    <row r="182" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H182" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N182" s="2"/>
+    </row>
+    <row r="183" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N183" s="2"/>
+    </row>
+    <row r="184" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N184" s="2"/>
+    </row>
+    <row r="185" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H185" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N185" s="2"/>
+    </row>
+    <row r="186" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H186" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N186" s="2"/>
+    </row>
+    <row r="187" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H187" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N187" s="2"/>
+    </row>
+    <row r="188" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H188" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N188" s="2"/>
+    </row>
+    <row r="189" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H189" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N189" s="2"/>
+    </row>
+    <row r="190" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H190" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N190" s="2"/>
+    </row>
+    <row r="191" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H191" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="N191" s="2"/>
+    </row>
+    <row r="192" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H192" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N192" s="2"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H193" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N193" s="2"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H194" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N194" s="2"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N195" s="2"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H196" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N196" s="2"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H197" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N197" s="2"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="N198" s="2"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
         <v>999</v>
+      </c>
+      <c r="N199" s="2"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N200" s="2"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <f>COUNTA(A2:A200)</f>
+        <v>82</v>
+      </c>
+      <c r="B201" s="2">
+        <f t="shared" ref="B201:K201" si="0">COUNTA(B2:B200)</f>
+        <v>80</v>
+      </c>
+      <c r="C201" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D201" s="2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="G201" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="H201" s="2">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="I201" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J201" s="2">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="K201" s="2">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="L201" s="2">
+        <f t="shared" ref="L201" si="1">COUNTA(L2:L200)</f>
+        <v>33</v>
+      </c>
+      <c r="M201" s="2">
+        <f t="shared" ref="M201" si="2">COUNTA(M2:M200)</f>
+        <v>87</v>
+      </c>
+      <c r="N201" s="2">
+        <f>SUM(A201:M201)</f>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,7 +5262,7 @@
       <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>248</v>
       </c>
       <c r="E1" t="s">
@@ -5304,7 +5304,7 @@
       <c r="C2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E2" t="s">
@@ -5346,7 +5346,7 @@
       <c r="C3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E3" t="s">
@@ -5388,7 +5388,7 @@
       <c r="C4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E4" t="s">
@@ -5430,7 +5430,7 @@
       <c r="C5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E5" t="s">
@@ -5472,7 +5472,7 @@
       <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E6" t="s">
@@ -5514,7 +5514,7 @@
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E7" t="s">
@@ -5556,7 +5556,7 @@
       <c r="C8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E8" t="s">
@@ -5598,7 +5598,7 @@
       <c r="C9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E9" t="s">
@@ -5640,7 +5640,7 @@
       <c r="C10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E10" t="s">
@@ -5682,7 +5682,7 @@
       <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E11" t="s">
@@ -5724,7 +5724,7 @@
       <c r="C12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E12" t="s">
@@ -5766,7 +5766,7 @@
       <c r="C13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E13" t="s">
@@ -5808,7 +5808,7 @@
       <c r="C14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E14" t="s">
@@ -5850,7 +5850,7 @@
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E15" t="s">
@@ -5892,7 +5892,7 @@
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>263</v>
       </c>
       <c r="E16" t="s">
@@ -5934,7 +5934,7 @@
       <c r="C17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E17" t="s">
@@ -5976,7 +5976,7 @@
       <c r="C18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E18" t="s">
@@ -6018,7 +6018,7 @@
       <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E19" t="s">
@@ -6060,7 +6060,7 @@
       <c r="C20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E20" t="s">
@@ -6102,7 +6102,7 @@
       <c r="C21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E21" t="s">
@@ -6144,7 +6144,7 @@
       <c r="C22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E22" t="s">
@@ -6186,7 +6186,7 @@
       <c r="C23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E23" t="s">
@@ -6228,7 +6228,7 @@
       <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E24" t="s">
@@ -6270,7 +6270,7 @@
       <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>272</v>
       </c>
       <c r="E25" t="s">
@@ -6312,7 +6312,7 @@
       <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E26" t="s">
@@ -6354,7 +6354,7 @@
       <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E27" t="s">
@@ -6396,7 +6396,7 @@
       <c r="C28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E28" t="s">
@@ -6438,7 +6438,7 @@
       <c r="C29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E29" t="s">
@@ -6480,7 +6480,7 @@
       <c r="C30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E30" t="s">
@@ -6522,7 +6522,7 @@
       <c r="C31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E31" t="s">
@@ -6564,7 +6564,7 @@
       <c r="C32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E32" t="s">
@@ -6606,7 +6606,7 @@
       <c r="C33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E33" t="s">
@@ -6648,7 +6648,7 @@
       <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E34" t="s">
@@ -6690,7 +6690,7 @@
       <c r="C35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E35" t="s">
@@ -6729,7 +6729,7 @@
       <c r="C36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E36" t="s">
@@ -6768,7 +6768,7 @@
       <c r="C37" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E37" t="s">
@@ -6807,7 +6807,7 @@
       <c r="C38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E38" t="s">
@@ -6846,7 +6846,7 @@
       <c r="C39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E39" t="s">
@@ -6885,7 +6885,7 @@
       <c r="C40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E40" t="s">
@@ -6924,7 +6924,7 @@
       <c r="C41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E41" t="s">
@@ -6963,7 +6963,7 @@
       <c r="C42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E42" t="s">
@@ -7002,7 +7002,7 @@
       <c r="C43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E43" t="s">
@@ -7041,7 +7041,7 @@
       <c r="C44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E44" t="s">
@@ -7080,7 +7080,7 @@
       <c r="C45" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E45" t="s">
@@ -7119,7 +7119,7 @@
       <c r="C46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E46" t="s">
@@ -7158,7 +7158,7 @@
       <c r="C47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E47" t="s">
@@ -7197,7 +7197,7 @@
       <c r="C48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E48" t="s">
@@ -7236,7 +7236,7 @@
       <c r="C49" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E49" t="s">
@@ -7275,7 +7275,7 @@
       <c r="C50" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E50" t="s">
@@ -7314,7 +7314,7 @@
       <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E51" t="s">
@@ -7353,7 +7353,7 @@
       <c r="C52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E52" t="s">
@@ -7392,7 +7392,7 @@
       <c r="C53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E53" t="s">
@@ -7431,7 +7431,7 @@
       <c r="C54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E54" t="s">
@@ -7470,7 +7470,7 @@
       <c r="C55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E55" t="s">
@@ -7509,7 +7509,7 @@
       <c r="C56" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E56" t="s">
@@ -7548,7 +7548,7 @@
       <c r="C57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>304</v>
       </c>
       <c r="E57" t="s">
@@ -7587,7 +7587,7 @@
       <c r="C58" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E58" t="s">
@@ -7626,7 +7626,7 @@
       <c r="C59" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E59" t="s">
@@ -7665,7 +7665,7 @@
       <c r="C60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E60" t="s">
@@ -7704,7 +7704,7 @@
       <c r="C61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>308</v>
       </c>
       <c r="E61" t="s">
@@ -7743,7 +7743,7 @@
       <c r="C62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E62" t="s">
@@ -7782,7 +7782,7 @@
       <c r="C63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E63" t="s">
@@ -7821,7 +7821,7 @@
       <c r="C64" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E64" t="s">
@@ -7860,7 +7860,7 @@
       <c r="C65" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E65" t="s">
@@ -7899,7 +7899,7 @@
       <c r="C66" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E66" t="s">
@@ -7938,7 +7938,7 @@
       <c r="C67" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E67" t="s">
@@ -7977,7 +7977,7 @@
       <c r="C68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>315</v>
       </c>
       <c r="E68" t="s">
@@ -8016,7 +8016,7 @@
       <c r="C69" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E69" t="s">
@@ -8055,7 +8055,7 @@
       <c r="C70" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E70" t="s">
@@ -8094,7 +8094,7 @@
       <c r="C71" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E71" t="s">
@@ -8133,7 +8133,7 @@
       <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E72" t="s">
@@ -8172,7 +8172,7 @@
       <c r="C73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E73" t="s">
@@ -8211,7 +8211,7 @@
       <c r="C74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E74" t="s">
@@ -8250,7 +8250,7 @@
       <c r="C75" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>322</v>
       </c>
       <c r="E75" t="s">
@@ -8289,7 +8289,7 @@
       <c r="C76" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>323</v>
       </c>
       <c r="E76" t="s">
@@ -8328,7 +8328,7 @@
       <c r="C77" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E77" t="s">
@@ -8367,7 +8367,7 @@
       <c r="C78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E78" t="s">
@@ -8406,7 +8406,7 @@
       <c r="C79" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E79" t="s">
@@ -8445,7 +8445,7 @@
       <c r="C80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>327</v>
       </c>
       <c r="E80" t="s">
@@ -8484,7 +8484,7 @@
       <c r="C81" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>328</v>
       </c>
       <c r="E81" t="s">
@@ -8520,7 +8520,7 @@
       <c r="C82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E82" t="s">
@@ -8556,7 +8556,7 @@
       <c r="C83" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E83" t="s">
@@ -8589,7 +8589,7 @@
       <c r="C84" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>331</v>
       </c>
       <c r="E84" t="s">
@@ -8622,7 +8622,7 @@
       <c r="C85" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>332</v>
       </c>
       <c r="E85" t="s">
@@ -8652,7 +8652,7 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E86" t="s">
@@ -8682,7 +8682,7 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E87" t="s">
@@ -8712,7 +8712,7 @@
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>335</v>
       </c>
       <c r="E88" t="s">
@@ -8742,7 +8742,7 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E89" t="s">
@@ -8769,7 +8769,7 @@
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E90" t="s">
@@ -8796,7 +8796,7 @@
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E91" t="s">
@@ -8823,7 +8823,7 @@
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E92" t="s">
@@ -8850,7 +8850,7 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>340</v>
       </c>
       <c r="E93" t="s">
@@ -8877,7 +8877,7 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E94" t="s">
@@ -8904,7 +8904,7 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E95" t="s">
@@ -8931,7 +8931,7 @@
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E96" t="s">
@@ -8958,7 +8958,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E97" t="s">
@@ -8985,7 +8985,7 @@
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E98" t="s">
@@ -9012,7 +9012,7 @@
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E99" t="s">
@@ -9039,7 +9039,7 @@
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>347</v>
       </c>
       <c r="E100" t="s">
@@ -9066,7 +9066,7 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E101" t="s">
@@ -9093,7 +9093,7 @@
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E102" t="s">
@@ -9120,7 +9120,7 @@
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>350</v>
       </c>
       <c r="E103" t="s">
@@ -9147,7 +9147,7 @@
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E104" t="s">
@@ -9174,7 +9174,7 @@
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E105" t="s">
@@ -9201,7 +9201,7 @@
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E106" t="s">
@@ -9228,7 +9228,7 @@
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E107" t="s">
@@ -9255,7 +9255,7 @@
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E108" t="s">
@@ -9282,7 +9282,7 @@
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E109" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="22320" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5265,7 @@
       <c r="D1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F1" t="s">
@@ -5307,7 +5307,7 @@
       <c r="D2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>357</v>
       </c>
       <c r="F2" t="s">
@@ -5349,7 +5349,7 @@
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>358</v>
       </c>
       <c r="F3" t="s">
@@ -5391,7 +5391,7 @@
       <c r="D4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F4" t="s">
@@ -5433,7 +5433,7 @@
       <c r="D5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>360</v>
       </c>
       <c r="F5" t="s">
@@ -5475,7 +5475,7 @@
       <c r="D6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>361</v>
       </c>
       <c r="F6" t="s">
@@ -5517,8 +5517,8 @@
       <c r="D7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E7" t="s">
-        <v>362</v>
+      <c r="E7" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="F7" t="s">
         <v>521</v>
@@ -5559,8 +5559,8 @@
       <c r="D8" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E8" t="s">
-        <v>363</v>
+      <c r="E8" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="F8" t="s">
         <v>522</v>
@@ -5601,7 +5601,7 @@
       <c r="D9" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>364</v>
       </c>
       <c r="F9" t="s">
@@ -5643,7 +5643,7 @@
       <c r="D10" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F10" t="s">
@@ -5685,7 +5685,7 @@
       <c r="D11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F11" t="s">
@@ -5727,7 +5727,7 @@
       <c r="D12" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F12" t="s">
@@ -5769,7 +5769,7 @@
       <c r="D13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F13" t="s">
@@ -5811,7 +5811,7 @@
       <c r="D14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F14" t="s">
@@ -5853,7 +5853,7 @@
       <c r="D15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F15" t="s">
@@ -5895,7 +5895,7 @@
       <c r="D16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F16" t="s">
@@ -5937,7 +5937,7 @@
       <c r="D17" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F17" t="s">
@@ -5979,7 +5979,7 @@
       <c r="D18" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F18" t="s">
@@ -6021,7 +6021,7 @@
       <c r="D19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F19" t="s">
@@ -6063,7 +6063,7 @@
       <c r="D20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F20" t="s">
@@ -6105,7 +6105,7 @@
       <c r="D21" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>376</v>
       </c>
       <c r="F21" t="s">
@@ -6147,7 +6147,7 @@
       <c r="D22" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F22" t="s">
@@ -6189,7 +6189,7 @@
       <c r="D23" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F23" t="s">
@@ -6231,7 +6231,7 @@
       <c r="D24" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>379</v>
       </c>
       <c r="F24" t="s">
@@ -6273,7 +6273,7 @@
       <c r="D25" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F25" t="s">
@@ -6315,7 +6315,7 @@
       <c r="D26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F26" t="s">
@@ -6357,7 +6357,7 @@
       <c r="D27" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>382</v>
       </c>
       <c r="F27" t="s">
@@ -6399,7 +6399,7 @@
       <c r="D28" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F28" t="s">
@@ -6441,7 +6441,7 @@
       <c r="D29" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F29" t="s">
@@ -6483,7 +6483,7 @@
       <c r="D30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F30" t="s">
@@ -6525,7 +6525,7 @@
       <c r="D31" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>386</v>
       </c>
       <c r="F31" t="s">
@@ -6567,7 +6567,7 @@
       <c r="D32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>387</v>
       </c>
       <c r="F32" t="s">
@@ -6609,7 +6609,7 @@
       <c r="D33" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F33" t="s">
@@ -6651,7 +6651,7 @@
       <c r="D34" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F34" t="s">
@@ -6693,7 +6693,7 @@
       <c r="D35" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>390</v>
       </c>
       <c r="F35" t="s">
@@ -6732,7 +6732,7 @@
       <c r="D36" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>391</v>
       </c>
       <c r="F36" t="s">
@@ -6771,7 +6771,7 @@
       <c r="D37" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F37" t="s">
@@ -6810,7 +6810,7 @@
       <c r="D38" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>393</v>
       </c>
       <c r="F38" t="s">
@@ -6849,7 +6849,7 @@
       <c r="D39" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>394</v>
       </c>
       <c r="F39" t="s">
@@ -6888,7 +6888,7 @@
       <c r="D40" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F40" t="s">
@@ -6927,7 +6927,7 @@
       <c r="D41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>396</v>
       </c>
       <c r="F41" t="s">
@@ -6966,7 +6966,7 @@
       <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F42" t="s">
@@ -7005,7 +7005,7 @@
       <c r="D43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>398</v>
       </c>
       <c r="F43" t="s">
@@ -7044,7 +7044,7 @@
       <c r="D44" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>399</v>
       </c>
       <c r="F44" t="s">
@@ -7083,7 +7083,7 @@
       <c r="D45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>400</v>
       </c>
       <c r="F45" t="s">
@@ -7122,7 +7122,7 @@
       <c r="D46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F46" t="s">
@@ -7161,7 +7161,7 @@
       <c r="D47" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>402</v>
       </c>
       <c r="F47" t="s">
@@ -7200,7 +7200,7 @@
       <c r="D48" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>403</v>
       </c>
       <c r="F48" t="s">
@@ -7239,7 +7239,7 @@
       <c r="D49" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F49" t="s">
@@ -7278,7 +7278,7 @@
       <c r="D50" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>405</v>
       </c>
       <c r="F50" t="s">
@@ -7317,7 +7317,7 @@
       <c r="D51" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>406</v>
       </c>
       <c r="F51" t="s">
@@ -7356,7 +7356,7 @@
       <c r="D52" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>407</v>
       </c>
       <c r="F52" t="s">
@@ -7395,7 +7395,7 @@
       <c r="D53" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F53" t="s">
@@ -7434,7 +7434,7 @@
       <c r="D54" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>409</v>
       </c>
       <c r="F54" t="s">
@@ -7473,7 +7473,7 @@
       <c r="D55" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>410</v>
       </c>
       <c r="F55" t="s">
@@ -7512,7 +7512,7 @@
       <c r="D56" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>411</v>
       </c>
       <c r="F56" t="s">
@@ -7551,7 +7551,7 @@
       <c r="D57" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F57" t="s">
@@ -7590,7 +7590,7 @@
       <c r="D58" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>413</v>
       </c>
       <c r="F58" t="s">
@@ -7629,7 +7629,7 @@
       <c r="D59" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>414</v>
       </c>
       <c r="F59" t="s">
@@ -7668,7 +7668,7 @@
       <c r="D60" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>415</v>
       </c>
       <c r="F60" t="s">
@@ -7707,7 +7707,7 @@
       <c r="D61" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>416</v>
       </c>
       <c r="F61" t="s">
@@ -7746,7 +7746,7 @@
       <c r="D62" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>417</v>
       </c>
       <c r="F62" t="s">
@@ -7785,7 +7785,7 @@
       <c r="D63" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>418</v>
       </c>
       <c r="F63" t="s">
@@ -7824,7 +7824,7 @@
       <c r="D64" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>419</v>
       </c>
       <c r="F64" t="s">
@@ -7863,7 +7863,7 @@
       <c r="D65" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>420</v>
       </c>
       <c r="F65" t="s">
@@ -7902,7 +7902,7 @@
       <c r="D66" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>421</v>
       </c>
       <c r="F66" t="s">
@@ -7941,7 +7941,7 @@
       <c r="D67" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F67" t="s">
@@ -7980,7 +7980,7 @@
       <c r="D68" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F68" t="s">
@@ -8019,7 +8019,7 @@
       <c r="D69" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>424</v>
       </c>
       <c r="F69" t="s">
@@ -8058,7 +8058,7 @@
       <c r="D70" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>425</v>
       </c>
       <c r="F70" t="s">
@@ -8097,7 +8097,7 @@
       <c r="D71" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F71" t="s">
@@ -8136,7 +8136,7 @@
       <c r="D72" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>427</v>
       </c>
       <c r="F72" t="s">
@@ -8175,7 +8175,7 @@
       <c r="D73" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>428</v>
       </c>
       <c r="F73" t="s">
@@ -8214,7 +8214,7 @@
       <c r="D74" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>429</v>
       </c>
       <c r="F74" t="s">
@@ -8253,7 +8253,7 @@
       <c r="D75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>430</v>
       </c>
       <c r="F75" t="s">
@@ -8292,7 +8292,7 @@
       <c r="D76" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>431</v>
       </c>
       <c r="F76" t="s">
@@ -8331,7 +8331,7 @@
       <c r="D77" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>432</v>
       </c>
       <c r="F77" t="s">
@@ -8370,7 +8370,7 @@
       <c r="D78" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>433</v>
       </c>
       <c r="F78" t="s">
@@ -8409,7 +8409,7 @@
       <c r="D79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>434</v>
       </c>
       <c r="F79" t="s">
@@ -8448,7 +8448,7 @@
       <c r="D80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>435</v>
       </c>
       <c r="F80" t="s">
@@ -8487,7 +8487,7 @@
       <c r="D81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F81" t="s">
@@ -8523,7 +8523,7 @@
       <c r="D82" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>437</v>
       </c>
       <c r="F82" t="s">
@@ -8559,7 +8559,7 @@
       <c r="D83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>438</v>
       </c>
       <c r="F83" t="s">
@@ -8592,7 +8592,7 @@
       <c r="D84" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>439</v>
       </c>
       <c r="F84" t="s">
@@ -8625,7 +8625,7 @@
       <c r="D85" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>440</v>
       </c>
       <c r="F85" t="s">
@@ -8655,7 +8655,7 @@
       <c r="D86" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>441</v>
       </c>
       <c r="F86" t="s">
@@ -8685,7 +8685,7 @@
       <c r="D87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F87" t="s">
@@ -8715,7 +8715,7 @@
       <c r="D88" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>443</v>
       </c>
       <c r="F88" t="s">
@@ -8745,7 +8745,7 @@
       <c r="D89" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>444</v>
       </c>
       <c r="F89" t="s">
@@ -8772,7 +8772,7 @@
       <c r="D90" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>445</v>
       </c>
       <c r="F90" t="s">
@@ -8799,7 +8799,7 @@
       <c r="D91" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>446</v>
       </c>
       <c r="F91" t="s">
@@ -8826,7 +8826,7 @@
       <c r="D92" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F92" t="s">
@@ -8853,7 +8853,7 @@
       <c r="D93" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>448</v>
       </c>
       <c r="F93" t="s">
@@ -8880,7 +8880,7 @@
       <c r="D94" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>449</v>
       </c>
       <c r="F94" t="s">
@@ -8907,7 +8907,7 @@
       <c r="D95" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>450</v>
       </c>
       <c r="F95" t="s">
@@ -8934,7 +8934,7 @@
       <c r="D96" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F96" t="s">
@@ -8961,7 +8961,7 @@
       <c r="D97" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>452</v>
       </c>
       <c r="F97" t="s">
@@ -8988,7 +8988,7 @@
       <c r="D98" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F98" t="s">
@@ -9015,7 +9015,7 @@
       <c r="D99" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>454</v>
       </c>
       <c r="F99" t="s">
@@ -9042,7 +9042,7 @@
       <c r="D100" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F100" t="s">
@@ -9069,7 +9069,7 @@
       <c r="D101" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F101" t="s">
@@ -9096,7 +9096,7 @@
       <c r="D102" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F102" t="s">
@@ -9123,7 +9123,7 @@
       <c r="D103" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>458</v>
       </c>
       <c r="F103" t="s">
@@ -9150,7 +9150,7 @@
       <c r="D104" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>459</v>
       </c>
       <c r="F104" t="s">
@@ -9177,7 +9177,7 @@
       <c r="D105" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F105" t="s">
@@ -9204,7 +9204,7 @@
       <c r="D106" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>461</v>
       </c>
       <c r="F106" t="s">
@@ -9231,7 +9231,7 @@
       <c r="D107" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>462</v>
       </c>
       <c r="F107" t="s">
@@ -9258,7 +9258,7 @@
       <c r="D108" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F108" t="s">
@@ -9285,7 +9285,7 @@
       <c r="D109" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>464</v>
       </c>
       <c r="F109" t="s">
@@ -9309,7 +9309,7 @@
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F110" t="s">
@@ -9333,7 +9333,7 @@
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F111" t="s">
@@ -9357,7 +9357,7 @@
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>467</v>
       </c>
       <c r="F112" t="s">
@@ -9381,7 +9381,7 @@
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>468</v>
       </c>
       <c r="F113" t="s">
@@ -9405,7 +9405,7 @@
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>469</v>
       </c>
       <c r="F114" t="s">
@@ -9429,7 +9429,7 @@
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>470</v>
       </c>
       <c r="F115" t="s">
@@ -9453,7 +9453,7 @@
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>471</v>
       </c>
       <c r="F116" t="s">
@@ -9477,7 +9477,7 @@
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>472</v>
       </c>
       <c r="F117" t="s">
@@ -9501,7 +9501,7 @@
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F118" t="s">
@@ -9525,7 +9525,7 @@
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>474</v>
       </c>
       <c r="F119" t="s">
@@ -9549,7 +9549,7 @@
       <c r="N119" s="2"/>
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>475</v>
       </c>
       <c r="F120" t="s">
@@ -9573,7 +9573,7 @@
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>476</v>
       </c>
       <c r="F121" t="s">
@@ -9597,7 +9597,7 @@
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>477</v>
       </c>
       <c r="F122" t="s">
@@ -9621,7 +9621,7 @@
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>478</v>
       </c>
       <c r="F123" t="s">
@@ -9645,7 +9645,7 @@
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F124" t="s">
@@ -9669,7 +9669,7 @@
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
+      <c r="E125" s="1" t="s">
         <v>480</v>
       </c>
       <c r="F125" t="s">
@@ -9693,7 +9693,7 @@
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
+      <c r="E126" s="1" t="s">
         <v>481</v>
       </c>
       <c r="F126" t="s">
@@ -9717,7 +9717,7 @@
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>482</v>
       </c>
       <c r="F127" t="s">
@@ -9741,7 +9741,7 @@
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F128" t="s">
@@ -9765,7 +9765,7 @@
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>484</v>
       </c>
       <c r="F129" t="s">
@@ -9789,7 +9789,7 @@
       <c r="N129" s="2"/>
     </row>
     <row r="130" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E130" t="s">
+      <c r="E130" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F130" t="s">
@@ -9813,7 +9813,7 @@
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F131" t="s">
@@ -9837,7 +9837,7 @@
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
+      <c r="E132" s="1" t="s">
         <v>487</v>
       </c>
       <c r="F132" t="s">
@@ -9861,7 +9861,7 @@
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
+      <c r="E133" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F133" t="s">
@@ -9885,7 +9885,7 @@
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>489</v>
       </c>
       <c r="F134" t="s">
@@ -9909,7 +9909,7 @@
       <c r="N134" s="2"/>
     </row>
     <row r="135" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
+      <c r="E135" s="1" t="s">
         <v>490</v>
       </c>
       <c r="F135" t="s">
@@ -9933,7 +9933,7 @@
       <c r="N135" s="2"/>
     </row>
     <row r="136" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>491</v>
       </c>
       <c r="F136" t="s">
@@ -9957,7 +9957,7 @@
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
+      <c r="E137" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F137" t="s">
@@ -9981,7 +9981,7 @@
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F138" t="s">
@@ -10005,7 +10005,7 @@
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
+      <c r="E139" s="1" t="s">
         <v>494</v>
       </c>
       <c r="F139" t="s">
@@ -10029,7 +10029,7 @@
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>495</v>
       </c>
       <c r="F140" t="s">
@@ -10053,7 +10053,7 @@
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>496</v>
       </c>
       <c r="F141" t="s">
@@ -10077,7 +10077,7 @@
       <c r="N141" s="2"/>
     </row>
     <row r="142" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F142" t="s">
@@ -10098,7 +10098,7 @@
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F143" t="s">
@@ -10119,7 +10119,7 @@
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
+      <c r="E144" s="1" t="s">
         <v>499</v>
       </c>
       <c r="F144" t="s">
@@ -10140,7 +10140,7 @@
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>500</v>
       </c>
       <c r="F145" t="s">
@@ -10161,7 +10161,7 @@
       <c r="N145" s="2"/>
     </row>
     <row r="146" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E146" t="s">
+      <c r="E146" s="1" t="s">
         <v>501</v>
       </c>
       <c r="F146" t="s">
@@ -10182,7 +10182,7 @@
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>502</v>
       </c>
       <c r="F147" t="s">
@@ -10203,7 +10203,7 @@
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
+      <c r="E148" s="1" t="s">
         <v>503</v>
       </c>
       <c r="H148" t="s">
@@ -10221,7 +10221,7 @@
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>504</v>
       </c>
       <c r="H149" t="s">
@@ -10239,7 +10239,7 @@
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
+      <c r="E150" s="1" t="s">
         <v>505</v>
       </c>
       <c r="H150" t="s">
@@ -10257,7 +10257,7 @@
       <c r="N150" s="2"/>
     </row>
     <row r="151" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
+      <c r="E151" s="1" t="s">
         <v>506</v>
       </c>
       <c r="H151" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="25110" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,18 +5231,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
@@ -5268,7 +5268,7 @@
       <c r="E1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>508</v>
       </c>
       <c r="G1" t="s">
@@ -5310,7 +5310,7 @@
       <c r="E2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>516</v>
       </c>
       <c r="G2" t="s">
@@ -5352,7 +5352,7 @@
       <c r="E3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>517</v>
       </c>
       <c r="G3" t="s">
@@ -5394,7 +5394,7 @@
       <c r="E4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>518</v>
       </c>
       <c r="G4" t="s">
@@ -5436,7 +5436,7 @@
       <c r="E5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>519</v>
       </c>
       <c r="G5" t="s">
@@ -5478,7 +5478,7 @@
       <c r="E6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>520</v>
       </c>
       <c r="G6" t="s">
@@ -5520,7 +5520,7 @@
       <c r="E7" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>521</v>
       </c>
       <c r="G7" t="s">
@@ -5562,7 +5562,7 @@
       <c r="E8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>522</v>
       </c>
       <c r="G8" t="s">
@@ -5604,7 +5604,7 @@
       <c r="E9" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>523</v>
       </c>
       <c r="G9" t="s">
@@ -5646,7 +5646,7 @@
       <c r="E10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>524</v>
       </c>
       <c r="G10" t="s">
@@ -5688,7 +5688,7 @@
       <c r="E11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G11" t="s">
@@ -5730,7 +5730,7 @@
       <c r="E12" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>526</v>
       </c>
       <c r="G12" t="s">
@@ -5772,7 +5772,7 @@
       <c r="E13" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>527</v>
       </c>
       <c r="G13" t="s">
@@ -5814,7 +5814,7 @@
       <c r="E14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>528</v>
       </c>
       <c r="G14" t="s">
@@ -5856,7 +5856,7 @@
       <c r="E15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>529</v>
       </c>
       <c r="G15" t="s">
@@ -5898,7 +5898,7 @@
       <c r="E16" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>530</v>
       </c>
       <c r="G16" t="s">
@@ -5940,7 +5940,7 @@
       <c r="E17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>531</v>
       </c>
       <c r="G17" t="s">
@@ -5982,7 +5982,7 @@
       <c r="E18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>532</v>
       </c>
       <c r="G18" t="s">
@@ -6024,7 +6024,7 @@
       <c r="E19" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>533</v>
       </c>
       <c r="G19" t="s">
@@ -6066,7 +6066,7 @@
       <c r="E20" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G20" t="s">
@@ -6108,7 +6108,7 @@
       <c r="E21" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>535</v>
       </c>
       <c r="G21" t="s">
@@ -6150,7 +6150,7 @@
       <c r="E22" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>536</v>
       </c>
       <c r="G22" t="s">
@@ -6192,7 +6192,7 @@
       <c r="E23" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>537</v>
       </c>
       <c r="G23" t="s">
@@ -6234,7 +6234,7 @@
       <c r="E24" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>538</v>
       </c>
       <c r="G24" t="s">
@@ -6276,7 +6276,7 @@
       <c r="E25" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>539</v>
       </c>
       <c r="G25" t="s">
@@ -6318,7 +6318,7 @@
       <c r="E26" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>540</v>
       </c>
       <c r="G26" t="s">
@@ -6360,7 +6360,7 @@
       <c r="E27" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>541</v>
       </c>
       <c r="G27" t="s">
@@ -6402,7 +6402,7 @@
       <c r="E28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>542</v>
       </c>
       <c r="G28" t="s">
@@ -6444,7 +6444,7 @@
       <c r="E29" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>543</v>
       </c>
       <c r="G29" t="s">
@@ -6486,7 +6486,7 @@
       <c r="E30" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>544</v>
       </c>
       <c r="G30" t="s">
@@ -6528,7 +6528,7 @@
       <c r="E31" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>545</v>
       </c>
       <c r="G31" t="s">
@@ -6570,7 +6570,7 @@
       <c r="E32" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>546</v>
       </c>
       <c r="G32" t="s">
@@ -6612,7 +6612,7 @@
       <c r="E33" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>547</v>
       </c>
       <c r="G33" t="s">
@@ -6654,7 +6654,7 @@
       <c r="E34" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>548</v>
       </c>
       <c r="G34" t="s">
@@ -6696,7 +6696,7 @@
       <c r="E35" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>549</v>
       </c>
       <c r="G35" t="s">
@@ -6735,7 +6735,7 @@
       <c r="E36" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>550</v>
       </c>
       <c r="G36" t="s">
@@ -6774,7 +6774,7 @@
       <c r="E37" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>551</v>
       </c>
       <c r="G37" t="s">
@@ -6813,7 +6813,7 @@
       <c r="E38" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>552</v>
       </c>
       <c r="G38" t="s">
@@ -6852,7 +6852,7 @@
       <c r="E39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>553</v>
       </c>
       <c r="G39" t="s">
@@ -6891,7 +6891,7 @@
       <c r="E40" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>554</v>
       </c>
       <c r="G40" t="s">
@@ -6930,7 +6930,7 @@
       <c r="E41" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>555</v>
       </c>
       <c r="G41" t="s">
@@ -6969,7 +6969,7 @@
       <c r="E42" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>556</v>
       </c>
       <c r="G42" t="s">
@@ -7008,7 +7008,7 @@
       <c r="E43" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>557</v>
       </c>
       <c r="G43" t="s">
@@ -7047,7 +7047,7 @@
       <c r="E44" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>558</v>
       </c>
       <c r="G44" t="s">
@@ -7086,7 +7086,7 @@
       <c r="E45" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>559</v>
       </c>
       <c r="G45" t="s">
@@ -7125,7 +7125,7 @@
       <c r="E46" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>560</v>
       </c>
       <c r="G46" t="s">
@@ -7164,7 +7164,7 @@
       <c r="E47" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>561</v>
       </c>
       <c r="G47" t="s">
@@ -7203,7 +7203,7 @@
       <c r="E48" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G48" t="s">
@@ -7242,7 +7242,7 @@
       <c r="E49" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>563</v>
       </c>
       <c r="G49" t="s">
@@ -7281,7 +7281,7 @@
       <c r="E50" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G50" t="s">
@@ -7320,7 +7320,7 @@
       <c r="E51" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>565</v>
       </c>
       <c r="G51" t="s">
@@ -7359,7 +7359,7 @@
       <c r="E52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G52" t="s">
@@ -7398,7 +7398,7 @@
       <c r="E53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>567</v>
       </c>
       <c r="G53" t="s">
@@ -7437,7 +7437,7 @@
       <c r="E54" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>568</v>
       </c>
       <c r="G54" t="s">
@@ -7476,7 +7476,7 @@
       <c r="E55" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>569</v>
       </c>
       <c r="G55" t="s">
@@ -7515,7 +7515,7 @@
       <c r="E56" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>570</v>
       </c>
       <c r="G56" t="s">
@@ -7554,7 +7554,7 @@
       <c r="E57" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>571</v>
       </c>
       <c r="G57" t="s">
@@ -7593,7 +7593,7 @@
       <c r="E58" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>572</v>
       </c>
       <c r="G58" t="s">
@@ -7632,7 +7632,7 @@
       <c r="E59" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>573</v>
       </c>
       <c r="G59" t="s">
@@ -7671,7 +7671,7 @@
       <c r="E60" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>574</v>
       </c>
       <c r="G60" t="s">
@@ -7710,7 +7710,7 @@
       <c r="E61" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>575</v>
       </c>
       <c r="G61" t="s">
@@ -7749,7 +7749,7 @@
       <c r="E62" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>576</v>
       </c>
       <c r="G62" t="s">
@@ -7788,7 +7788,7 @@
       <c r="E63" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>577</v>
       </c>
       <c r="G63" t="s">
@@ -7827,7 +7827,7 @@
       <c r="E64" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>578</v>
       </c>
       <c r="G64" t="s">
@@ -7866,7 +7866,7 @@
       <c r="E65" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>579</v>
       </c>
       <c r="G65" t="s">
@@ -7905,7 +7905,7 @@
       <c r="E66" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>580</v>
       </c>
       <c r="G66" t="s">
@@ -7944,7 +7944,7 @@
       <c r="E67" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>581</v>
       </c>
       <c r="G67" t="s">
@@ -7983,7 +7983,7 @@
       <c r="E68" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>582</v>
       </c>
       <c r="G68" t="s">
@@ -8022,7 +8022,7 @@
       <c r="E69" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>583</v>
       </c>
       <c r="G69" t="s">
@@ -8061,7 +8061,7 @@
       <c r="E70" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>584</v>
       </c>
       <c r="G70" t="s">
@@ -8100,7 +8100,7 @@
       <c r="E71" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>585</v>
       </c>
       <c r="G71" t="s">
@@ -8139,7 +8139,7 @@
       <c r="E72" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>586</v>
       </c>
       <c r="G72" t="s">
@@ -8178,7 +8178,7 @@
       <c r="E73" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>587</v>
       </c>
       <c r="G73" t="s">
@@ -8217,7 +8217,7 @@
       <c r="E74" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>588</v>
       </c>
       <c r="G74" t="s">
@@ -8256,7 +8256,7 @@
       <c r="E75" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>589</v>
       </c>
       <c r="G75" t="s">
@@ -8295,7 +8295,7 @@
       <c r="E76" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>590</v>
       </c>
       <c r="G76" t="s">
@@ -8334,7 +8334,7 @@
       <c r="E77" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>591</v>
       </c>
       <c r="G77" t="s">
@@ -8373,7 +8373,7 @@
       <c r="E78" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>592</v>
       </c>
       <c r="G78" t="s">
@@ -8412,7 +8412,7 @@
       <c r="E79" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>593</v>
       </c>
       <c r="G79" t="s">
@@ -8451,7 +8451,7 @@
       <c r="E80" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>594</v>
       </c>
       <c r="G80" t="s">
@@ -8490,7 +8490,7 @@
       <c r="E81" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>595</v>
       </c>
       <c r="G81" t="s">
@@ -8526,7 +8526,7 @@
       <c r="E82" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>596</v>
       </c>
       <c r="G82" t="s">
@@ -8562,7 +8562,7 @@
       <c r="E83" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>597</v>
       </c>
       <c r="G83" t="s">
@@ -8595,7 +8595,7 @@
       <c r="E84" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>598</v>
       </c>
       <c r="G84" t="s">
@@ -8628,7 +8628,7 @@
       <c r="E85" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>599</v>
       </c>
       <c r="G85" t="s">
@@ -8658,7 +8658,7 @@
       <c r="E86" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>600</v>
       </c>
       <c r="G86" t="s">
@@ -8688,7 +8688,7 @@
       <c r="E87" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G87" t="s">
@@ -8718,7 +8718,7 @@
       <c r="E88" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>602</v>
       </c>
       <c r="G88" t="s">
@@ -8748,7 +8748,7 @@
       <c r="E89" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>603</v>
       </c>
       <c r="G89" t="s">
@@ -8775,7 +8775,7 @@
       <c r="E90" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G90" t="s">
@@ -8802,7 +8802,7 @@
       <c r="E91" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>605</v>
       </c>
       <c r="G91" t="s">
@@ -8829,7 +8829,7 @@
       <c r="E92" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>606</v>
       </c>
       <c r="G92" t="s">
@@ -8856,7 +8856,7 @@
       <c r="E93" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>607</v>
       </c>
       <c r="G93" t="s">
@@ -8883,7 +8883,7 @@
       <c r="E94" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G94" t="s">
@@ -8910,7 +8910,7 @@
       <c r="E95" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>609</v>
       </c>
       <c r="G95" t="s">
@@ -8937,7 +8937,7 @@
       <c r="E96" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>610</v>
       </c>
       <c r="G96" t="s">
@@ -8964,7 +8964,7 @@
       <c r="E97" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>611</v>
       </c>
       <c r="G97" t="s">
@@ -8991,7 +8991,7 @@
       <c r="E98" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>612</v>
       </c>
       <c r="G98" t="s">
@@ -9018,7 +9018,7 @@
       <c r="E99" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>613</v>
       </c>
       <c r="G99" t="s">
@@ -9045,7 +9045,7 @@
       <c r="E100" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>614</v>
       </c>
       <c r="G100" t="s">
@@ -9072,7 +9072,7 @@
       <c r="E101" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>615</v>
       </c>
       <c r="G101" t="s">
@@ -9099,7 +9099,7 @@
       <c r="E102" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>616</v>
       </c>
       <c r="G102" t="s">
@@ -9126,7 +9126,7 @@
       <c r="E103" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>617</v>
       </c>
       <c r="G103" t="s">
@@ -9153,7 +9153,7 @@
       <c r="E104" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>618</v>
       </c>
       <c r="G104" t="s">
@@ -9180,7 +9180,7 @@
       <c r="E105" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>619</v>
       </c>
       <c r="G105" t="s">
@@ -9207,7 +9207,7 @@
       <c r="E106" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>620</v>
       </c>
       <c r="G106" t="s">
@@ -9234,7 +9234,7 @@
       <c r="E107" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>621</v>
       </c>
       <c r="G107" t="s">
@@ -9261,7 +9261,7 @@
       <c r="E108" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>622</v>
       </c>
       <c r="G108" t="s">
@@ -9288,7 +9288,7 @@
       <c r="E109" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>623</v>
       </c>
       <c r="G109" t="s">
@@ -9312,7 +9312,7 @@
       <c r="E110" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>624</v>
       </c>
       <c r="G110" t="s">
@@ -9336,7 +9336,7 @@
       <c r="E111" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>625</v>
       </c>
       <c r="G111" t="s">
@@ -9360,7 +9360,7 @@
       <c r="E112" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>626</v>
       </c>
       <c r="G112" t="s">
@@ -9384,7 +9384,7 @@
       <c r="E113" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>627</v>
       </c>
       <c r="G113" t="s">
@@ -9408,7 +9408,7 @@
       <c r="E114" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>628</v>
       </c>
       <c r="G114" t="s">
@@ -9432,7 +9432,7 @@
       <c r="E115" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>629</v>
       </c>
       <c r="G115" t="s">
@@ -9456,7 +9456,7 @@
       <c r="E116" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>630</v>
       </c>
       <c r="G116" t="s">
@@ -9480,7 +9480,7 @@
       <c r="E117" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>631</v>
       </c>
       <c r="G117" t="s">
@@ -9504,7 +9504,7 @@
       <c r="E118" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>632</v>
       </c>
       <c r="G118" t="s">
@@ -9528,7 +9528,7 @@
       <c r="E119" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>633</v>
       </c>
       <c r="G119" t="s">
@@ -9552,7 +9552,7 @@
       <c r="E120" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>634</v>
       </c>
       <c r="G120" t="s">
@@ -9576,7 +9576,7 @@
       <c r="E121" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>635</v>
       </c>
       <c r="G121" t="s">
@@ -9600,7 +9600,7 @@
       <c r="E122" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>636</v>
       </c>
       <c r="G122" t="s">
@@ -9624,7 +9624,7 @@
       <c r="E123" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>637</v>
       </c>
       <c r="G123" t="s">
@@ -9648,7 +9648,7 @@
       <c r="E124" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>638</v>
       </c>
       <c r="G124" t="s">
@@ -9672,7 +9672,7 @@
       <c r="E125" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>639</v>
       </c>
       <c r="G125" t="s">
@@ -9696,7 +9696,7 @@
       <c r="E126" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>640</v>
       </c>
       <c r="G126" t="s">
@@ -9720,7 +9720,7 @@
       <c r="E127" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>641</v>
       </c>
       <c r="G127" t="s">
@@ -9744,7 +9744,7 @@
       <c r="E128" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>642</v>
       </c>
       <c r="G128" t="s">
@@ -9768,7 +9768,7 @@
       <c r="E129" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>643</v>
       </c>
       <c r="G129" t="s">
@@ -9792,7 +9792,7 @@
       <c r="E130" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>644</v>
       </c>
       <c r="G130" t="s">
@@ -9816,7 +9816,7 @@
       <c r="E131" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>645</v>
       </c>
       <c r="G131" t="s">
@@ -9840,7 +9840,7 @@
       <c r="E132" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>646</v>
       </c>
       <c r="G132" t="s">
@@ -9864,7 +9864,7 @@
       <c r="E133" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>647</v>
       </c>
       <c r="G133" t="s">
@@ -9888,7 +9888,7 @@
       <c r="E134" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>648</v>
       </c>
       <c r="G134" t="s">
@@ -9912,7 +9912,7 @@
       <c r="E135" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>649</v>
       </c>
       <c r="G135" t="s">
@@ -9936,7 +9936,7 @@
       <c r="E136" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>650</v>
       </c>
       <c r="G136" t="s">
@@ -9960,7 +9960,7 @@
       <c r="E137" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>651</v>
       </c>
       <c r="G137" t="s">
@@ -9984,7 +9984,7 @@
       <c r="E138" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>652</v>
       </c>
       <c r="G138" t="s">
@@ -10008,7 +10008,7 @@
       <c r="E139" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>653</v>
       </c>
       <c r="G139" t="s">
@@ -10032,7 +10032,7 @@
       <c r="E140" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>654</v>
       </c>
       <c r="G140" t="s">
@@ -10056,7 +10056,7 @@
       <c r="E141" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>655</v>
       </c>
       <c r="G141" t="s">
@@ -10080,7 +10080,7 @@
       <c r="E142" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>656</v>
       </c>
       <c r="H142" t="s">
@@ -10101,7 +10101,7 @@
       <c r="E143" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H143" t="s">
@@ -10122,7 +10122,7 @@
       <c r="E144" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>658</v>
       </c>
       <c r="H144" t="s">
@@ -10143,7 +10143,7 @@
       <c r="E145" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>659</v>
       </c>
       <c r="H145" t="s">
@@ -10164,7 +10164,7 @@
       <c r="E146" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>660</v>
       </c>
       <c r="H146" t="s">
@@ -10185,7 +10185,7 @@
       <c r="E147" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>661</v>
       </c>
       <c r="H147" t="s">
@@ -10751,6 +10751,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="25110" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5232,7 +5232,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="30690" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="C112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,7 +5243,7 @@
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
@@ -5271,7 +5271,7 @@
       <c r="F1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>509</v>
       </c>
       <c r="H1" t="s">
@@ -5313,7 +5313,7 @@
       <c r="F2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>662</v>
       </c>
       <c r="H2" t="s">
@@ -5355,7 +5355,7 @@
       <c r="F3" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>663</v>
       </c>
       <c r="H3" t="s">
@@ -5397,7 +5397,7 @@
       <c r="F4" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>664</v>
       </c>
       <c r="H4" t="s">
@@ -5439,7 +5439,7 @@
       <c r="F5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>665</v>
       </c>
       <c r="H5" t="s">
@@ -5481,7 +5481,7 @@
       <c r="F6" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>666</v>
       </c>
       <c r="H6" t="s">
@@ -5523,7 +5523,7 @@
       <c r="F7" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>667</v>
       </c>
       <c r="H7" t="s">
@@ -5565,7 +5565,7 @@
       <c r="F8" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>668</v>
       </c>
       <c r="H8" t="s">
@@ -5607,7 +5607,7 @@
       <c r="F9" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>669</v>
       </c>
       <c r="H9" t="s">
@@ -5649,7 +5649,7 @@
       <c r="F10" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>670</v>
       </c>
       <c r="H10" t="s">
@@ -5691,7 +5691,7 @@
       <c r="F11" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>671</v>
       </c>
       <c r="H11" t="s">
@@ -5733,7 +5733,7 @@
       <c r="F12" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>672</v>
       </c>
       <c r="H12" t="s">
@@ -5775,7 +5775,7 @@
       <c r="F13" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>673</v>
       </c>
       <c r="H13" t="s">
@@ -5817,7 +5817,7 @@
       <c r="F14" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>674</v>
       </c>
       <c r="H14" t="s">
@@ -5859,7 +5859,7 @@
       <c r="F15" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>675</v>
       </c>
       <c r="H15" t="s">
@@ -5901,7 +5901,7 @@
       <c r="F16" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>676</v>
       </c>
       <c r="H16" t="s">
@@ -5943,7 +5943,7 @@
       <c r="F17" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>677</v>
       </c>
       <c r="H17" t="s">
@@ -5985,7 +5985,7 @@
       <c r="F18" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>678</v>
       </c>
       <c r="H18" t="s">
@@ -6027,7 +6027,7 @@
       <c r="F19" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>679</v>
       </c>
       <c r="H19" t="s">
@@ -6069,7 +6069,7 @@
       <c r="F20" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>680</v>
       </c>
       <c r="H20" t="s">
@@ -6111,7 +6111,7 @@
       <c r="F21" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>681</v>
       </c>
       <c r="H21" t="s">
@@ -6153,7 +6153,7 @@
       <c r="F22" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>682</v>
       </c>
       <c r="H22" t="s">
@@ -6195,7 +6195,7 @@
       <c r="F23" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>683</v>
       </c>
       <c r="H23" t="s">
@@ -6237,7 +6237,7 @@
       <c r="F24" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>684</v>
       </c>
       <c r="H24" t="s">
@@ -6279,7 +6279,7 @@
       <c r="F25" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>685</v>
       </c>
       <c r="H25" t="s">
@@ -6321,7 +6321,7 @@
       <c r="F26" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>686</v>
       </c>
       <c r="H26" t="s">
@@ -6363,7 +6363,7 @@
       <c r="F27" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>687</v>
       </c>
       <c r="H27" t="s">
@@ -6405,7 +6405,7 @@
       <c r="F28" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>688</v>
       </c>
       <c r="H28" t="s">
@@ -6447,7 +6447,7 @@
       <c r="F29" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>689</v>
       </c>
       <c r="H29" t="s">
@@ -6489,7 +6489,7 @@
       <c r="F30" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>690</v>
       </c>
       <c r="H30" t="s">
@@ -6531,7 +6531,7 @@
       <c r="F31" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>691</v>
       </c>
       <c r="H31" t="s">
@@ -6573,7 +6573,7 @@
       <c r="F32" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>692</v>
       </c>
       <c r="H32" t="s">
@@ -6615,7 +6615,7 @@
       <c r="F33" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>693</v>
       </c>
       <c r="H33" t="s">
@@ -6657,7 +6657,7 @@
       <c r="F34" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>694</v>
       </c>
       <c r="H34" t="s">
@@ -6699,7 +6699,7 @@
       <c r="F35" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>695</v>
       </c>
       <c r="H35" t="s">
@@ -6738,7 +6738,7 @@
       <c r="F36" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>696</v>
       </c>
       <c r="H36" t="s">
@@ -6777,7 +6777,7 @@
       <c r="F37" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>697</v>
       </c>
       <c r="H37" t="s">
@@ -6816,7 +6816,7 @@
       <c r="F38" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>698</v>
       </c>
       <c r="H38" t="s">
@@ -6855,7 +6855,7 @@
       <c r="F39" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>699</v>
       </c>
       <c r="H39" t="s">
@@ -6894,7 +6894,7 @@
       <c r="F40" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H40" t="s">
@@ -6933,7 +6933,7 @@
       <c r="F41" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>701</v>
       </c>
       <c r="H41" t="s">
@@ -6972,7 +6972,7 @@
       <c r="F42" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>702</v>
       </c>
       <c r="H42" t="s">
@@ -7011,7 +7011,7 @@
       <c r="F43" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>703</v>
       </c>
       <c r="H43" t="s">
@@ -7050,7 +7050,7 @@
       <c r="F44" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>704</v>
       </c>
       <c r="H44" t="s">
@@ -7089,7 +7089,7 @@
       <c r="F45" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>705</v>
       </c>
       <c r="H45" t="s">
@@ -7128,7 +7128,7 @@
       <c r="F46" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>706</v>
       </c>
       <c r="H46" t="s">
@@ -7167,7 +7167,7 @@
       <c r="F47" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>707</v>
       </c>
       <c r="H47" t="s">
@@ -7206,7 +7206,7 @@
       <c r="F48" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H48" t="s">
@@ -7245,7 +7245,7 @@
       <c r="F49" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>709</v>
       </c>
       <c r="H49" t="s">
@@ -7284,7 +7284,7 @@
       <c r="F50" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>710</v>
       </c>
       <c r="H50" t="s">
@@ -7323,7 +7323,7 @@
       <c r="F51" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>711</v>
       </c>
       <c r="H51" t="s">
@@ -7362,7 +7362,7 @@
       <c r="F52" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>712</v>
       </c>
       <c r="H52" t="s">
@@ -7401,7 +7401,7 @@
       <c r="F53" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>713</v>
       </c>
       <c r="H53" t="s">
@@ -7440,7 +7440,7 @@
       <c r="F54" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>714</v>
       </c>
       <c r="H54" t="s">
@@ -7479,7 +7479,7 @@
       <c r="F55" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>715</v>
       </c>
       <c r="H55" t="s">
@@ -7518,7 +7518,7 @@
       <c r="F56" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>716</v>
       </c>
       <c r="H56" t="s">
@@ -7557,7 +7557,7 @@
       <c r="F57" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>717</v>
       </c>
       <c r="H57" t="s">
@@ -7596,7 +7596,7 @@
       <c r="F58" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>718</v>
       </c>
       <c r="H58" t="s">
@@ -7635,7 +7635,7 @@
       <c r="F59" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>719</v>
       </c>
       <c r="H59" t="s">
@@ -7674,7 +7674,7 @@
       <c r="F60" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>720</v>
       </c>
       <c r="H60" t="s">
@@ -7713,7 +7713,7 @@
       <c r="F61" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>721</v>
       </c>
       <c r="H61" t="s">
@@ -7752,7 +7752,7 @@
       <c r="F62" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>722</v>
       </c>
       <c r="H62" t="s">
@@ -7791,7 +7791,7 @@
       <c r="F63" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>723</v>
       </c>
       <c r="H63" t="s">
@@ -7830,7 +7830,7 @@
       <c r="F64" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>724</v>
       </c>
       <c r="H64" t="s">
@@ -7869,7 +7869,7 @@
       <c r="F65" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>725</v>
       </c>
       <c r="H65" t="s">
@@ -7908,7 +7908,7 @@
       <c r="F66" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>726</v>
       </c>
       <c r="H66" t="s">
@@ -7947,7 +7947,7 @@
       <c r="F67" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>727</v>
       </c>
       <c r="H67" t="s">
@@ -7986,7 +7986,7 @@
       <c r="F68" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>728</v>
       </c>
       <c r="H68" t="s">
@@ -8025,7 +8025,7 @@
       <c r="F69" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>729</v>
       </c>
       <c r="H69" t="s">
@@ -8064,7 +8064,7 @@
       <c r="F70" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>730</v>
       </c>
       <c r="H70" t="s">
@@ -8103,7 +8103,7 @@
       <c r="F71" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>731</v>
       </c>
       <c r="H71" t="s">
@@ -8142,7 +8142,7 @@
       <c r="F72" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>732</v>
       </c>
       <c r="H72" t="s">
@@ -8181,7 +8181,7 @@
       <c r="F73" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>733</v>
       </c>
       <c r="H73" t="s">
@@ -8220,7 +8220,7 @@
       <c r="F74" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>734</v>
       </c>
       <c r="H74" t="s">
@@ -8259,7 +8259,7 @@
       <c r="F75" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>735</v>
       </c>
       <c r="H75" t="s">
@@ -8298,7 +8298,7 @@
       <c r="F76" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>736</v>
       </c>
       <c r="H76" t="s">
@@ -8337,7 +8337,7 @@
       <c r="F77" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>737</v>
       </c>
       <c r="H77" t="s">
@@ -8376,7 +8376,7 @@
       <c r="F78" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>738</v>
       </c>
       <c r="H78" t="s">
@@ -8415,7 +8415,7 @@
       <c r="F79" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>739</v>
       </c>
       <c r="H79" t="s">
@@ -8454,7 +8454,7 @@
       <c r="F80" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>740</v>
       </c>
       <c r="H80" t="s">
@@ -8493,7 +8493,7 @@
       <c r="F81" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>741</v>
       </c>
       <c r="H81" t="s">
@@ -8529,7 +8529,7 @@
       <c r="F82" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>742</v>
       </c>
       <c r="H82" t="s">
@@ -8565,7 +8565,7 @@
       <c r="F83" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>743</v>
       </c>
       <c r="H83" t="s">
@@ -8598,7 +8598,7 @@
       <c r="F84" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>744</v>
       </c>
       <c r="H84" t="s">
@@ -8631,7 +8631,7 @@
       <c r="F85" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>745</v>
       </c>
       <c r="H85" t="s">
@@ -8661,7 +8661,7 @@
       <c r="F86" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="1" t="s">
         <v>746</v>
       </c>
       <c r="H86" t="s">
@@ -8691,7 +8691,7 @@
       <c r="F87" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="1" t="s">
         <v>747</v>
       </c>
       <c r="H87" t="s">
@@ -8721,7 +8721,7 @@
       <c r="F88" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>748</v>
       </c>
       <c r="H88" t="s">
@@ -8751,7 +8751,7 @@
       <c r="F89" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>749</v>
       </c>
       <c r="H89" t="s">
@@ -8778,7 +8778,7 @@
       <c r="F90" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>750</v>
       </c>
       <c r="H90" t="s">
@@ -8805,7 +8805,7 @@
       <c r="F91" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>751</v>
       </c>
       <c r="H91" t="s">
@@ -8832,7 +8832,7 @@
       <c r="F92" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>752</v>
       </c>
       <c r="H92" t="s">
@@ -8859,7 +8859,7 @@
       <c r="F93" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H93" t="s">
@@ -8886,7 +8886,7 @@
       <c r="F94" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>754</v>
       </c>
       <c r="H94" t="s">
@@ -8913,7 +8913,7 @@
       <c r="F95" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>755</v>
       </c>
       <c r="H95" t="s">
@@ -8940,7 +8940,7 @@
       <c r="F96" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>756</v>
       </c>
       <c r="H96" t="s">
@@ -8967,7 +8967,7 @@
       <c r="F97" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>757</v>
       </c>
       <c r="H97" t="s">
@@ -8994,7 +8994,7 @@
       <c r="F98" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>758</v>
       </c>
       <c r="H98" t="s">
@@ -9021,7 +9021,7 @@
       <c r="F99" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>759</v>
       </c>
       <c r="H99" t="s">
@@ -9048,7 +9048,7 @@
       <c r="F100" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>760</v>
       </c>
       <c r="H100" t="s">
@@ -9075,7 +9075,7 @@
       <c r="F101" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>761</v>
       </c>
       <c r="H101" t="s">
@@ -9102,7 +9102,7 @@
       <c r="F102" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>762</v>
       </c>
       <c r="H102" t="s">
@@ -9129,7 +9129,7 @@
       <c r="F103" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>763</v>
       </c>
       <c r="H103" t="s">
@@ -9156,7 +9156,7 @@
       <c r="F104" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>764</v>
       </c>
       <c r="H104" t="s">
@@ -9183,7 +9183,7 @@
       <c r="F105" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>765</v>
       </c>
       <c r="H105" t="s">
@@ -9210,7 +9210,7 @@
       <c r="F106" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>766</v>
       </c>
       <c r="H106" t="s">
@@ -9237,7 +9237,7 @@
       <c r="F107" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>767</v>
       </c>
       <c r="H107" t="s">
@@ -9264,7 +9264,7 @@
       <c r="F108" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>768</v>
       </c>
       <c r="H108" t="s">
@@ -9291,7 +9291,7 @@
       <c r="F109" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>769</v>
       </c>
       <c r="H109" t="s">
@@ -9315,7 +9315,7 @@
       <c r="F110" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>770</v>
       </c>
       <c r="H110" t="s">
@@ -9339,7 +9339,7 @@
       <c r="F111" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>771</v>
       </c>
       <c r="H111" t="s">
@@ -9363,7 +9363,7 @@
       <c r="F112" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>772</v>
       </c>
       <c r="H112" t="s">
@@ -9387,7 +9387,7 @@
       <c r="F113" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>773</v>
       </c>
       <c r="H113" t="s">
@@ -9411,7 +9411,7 @@
       <c r="F114" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>774</v>
       </c>
       <c r="H114" t="s">
@@ -9435,7 +9435,7 @@
       <c r="F115" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>775</v>
       </c>
       <c r="H115" t="s">
@@ -9459,7 +9459,7 @@
       <c r="F116" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>776</v>
       </c>
       <c r="H116" t="s">
@@ -9483,7 +9483,7 @@
       <c r="F117" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="1" t="s">
         <v>777</v>
       </c>
       <c r="H117" t="s">
@@ -9507,7 +9507,7 @@
       <c r="F118" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>778</v>
       </c>
       <c r="H118" t="s">
@@ -9531,7 +9531,7 @@
       <c r="F119" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>779</v>
       </c>
       <c r="H119" t="s">
@@ -9555,7 +9555,7 @@
       <c r="F120" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>780</v>
       </c>
       <c r="H120" t="s">
@@ -9579,7 +9579,7 @@
       <c r="F121" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>781</v>
       </c>
       <c r="H121" t="s">
@@ -9603,7 +9603,7 @@
       <c r="F122" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>782</v>
       </c>
       <c r="H122" t="s">
@@ -9627,7 +9627,7 @@
       <c r="F123" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>783</v>
       </c>
       <c r="H123" t="s">
@@ -9651,7 +9651,7 @@
       <c r="F124" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>784</v>
       </c>
       <c r="H124" t="s">
@@ -9675,7 +9675,7 @@
       <c r="F125" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>785</v>
       </c>
       <c r="H125" t="s">
@@ -9699,7 +9699,7 @@
       <c r="F126" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="1" t="s">
         <v>786</v>
       </c>
       <c r="H126" t="s">
@@ -9723,7 +9723,7 @@
       <c r="F127" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>787</v>
       </c>
       <c r="H127" t="s">
@@ -9747,7 +9747,7 @@
       <c r="F128" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>788</v>
       </c>
       <c r="H128" t="s">
@@ -9771,7 +9771,7 @@
       <c r="F129" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>789</v>
       </c>
       <c r="H129" t="s">
@@ -9795,7 +9795,7 @@
       <c r="F130" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="1" t="s">
         <v>790</v>
       </c>
       <c r="H130" t="s">
@@ -9819,7 +9819,7 @@
       <c r="F131" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="1" t="s">
         <v>791</v>
       </c>
       <c r="H131" t="s">
@@ -9843,7 +9843,7 @@
       <c r="F132" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>792</v>
       </c>
       <c r="H132" t="s">
@@ -9867,7 +9867,7 @@
       <c r="F133" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="1" t="s">
         <v>793</v>
       </c>
       <c r="H133" t="s">
@@ -9891,7 +9891,7 @@
       <c r="F134" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="1" t="s">
         <v>794</v>
       </c>
       <c r="H134" t="s">
@@ -9915,7 +9915,7 @@
       <c r="F135" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="1" t="s">
         <v>795</v>
       </c>
       <c r="H135" t="s">
@@ -9939,7 +9939,7 @@
       <c r="F136" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="1" t="s">
         <v>796</v>
       </c>
       <c r="H136" t="s">
@@ -9963,7 +9963,7 @@
       <c r="F137" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="1" t="s">
         <v>797</v>
       </c>
       <c r="H137" t="s">
@@ -9987,7 +9987,7 @@
       <c r="F138" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="1" t="s">
         <v>798</v>
       </c>
       <c r="H138" t="s">
@@ -10011,7 +10011,7 @@
       <c r="F139" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="1" t="s">
         <v>799</v>
       </c>
       <c r="H139" t="s">
@@ -10035,7 +10035,7 @@
       <c r="F140" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="1" t="s">
         <v>800</v>
       </c>
       <c r="H140" t="s">
@@ -10059,7 +10059,7 @@
       <c r="F141" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="1" t="s">
         <v>801</v>
       </c>
       <c r="H141" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="33480" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5244,7 @@
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
@@ -5274,7 +5274,7 @@
       <c r="G1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>510</v>
       </c>
       <c r="I1" t="s">
@@ -5316,7 +5316,7 @@
       <c r="G2" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>802</v>
       </c>
       <c r="I2" t="s">
@@ -5358,7 +5358,7 @@
       <c r="G3" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>803</v>
       </c>
       <c r="I3" t="s">
@@ -5400,7 +5400,7 @@
       <c r="G4" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>804</v>
       </c>
       <c r="I4" t="s">
@@ -5442,7 +5442,7 @@
       <c r="G5" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>805</v>
       </c>
       <c r="I5" t="s">
@@ -5484,7 +5484,7 @@
       <c r="G6" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>806</v>
       </c>
       <c r="I6" t="s">
@@ -5526,7 +5526,7 @@
       <c r="G7" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>807</v>
       </c>
       <c r="I7" t="s">
@@ -5568,7 +5568,7 @@
       <c r="G8" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>808</v>
       </c>
       <c r="I8" t="s">
@@ -5610,7 +5610,7 @@
       <c r="G9" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>809</v>
       </c>
       <c r="I9" t="s">
@@ -5652,7 +5652,7 @@
       <c r="G10" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>810</v>
       </c>
       <c r="I10" t="s">
@@ -5694,7 +5694,7 @@
       <c r="G11" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>811</v>
       </c>
       <c r="I11" t="s">
@@ -5736,7 +5736,7 @@
       <c r="G12" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>812</v>
       </c>
       <c r="I12" t="s">
@@ -5778,7 +5778,7 @@
       <c r="G13" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>813</v>
       </c>
       <c r="I13" t="s">
@@ -5820,7 +5820,7 @@
       <c r="G14" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>814</v>
       </c>
       <c r="I14" t="s">
@@ -5862,7 +5862,7 @@
       <c r="G15" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>815</v>
       </c>
       <c r="I15" t="s">
@@ -5904,7 +5904,7 @@
       <c r="G16" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>816</v>
       </c>
       <c r="I16" t="s">
@@ -5946,7 +5946,7 @@
       <c r="G17" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>817</v>
       </c>
       <c r="I17" t="s">
@@ -5988,7 +5988,7 @@
       <c r="G18" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>818</v>
       </c>
       <c r="I18" t="s">
@@ -6030,7 +6030,7 @@
       <c r="G19" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>819</v>
       </c>
       <c r="I19" t="s">
@@ -6072,7 +6072,7 @@
       <c r="G20" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>820</v>
       </c>
       <c r="I20" t="s">
@@ -6114,7 +6114,7 @@
       <c r="G21" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>821</v>
       </c>
       <c r="I21" t="s">
@@ -6156,7 +6156,7 @@
       <c r="G22" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>822</v>
       </c>
       <c r="I22" t="s">
@@ -6198,7 +6198,7 @@
       <c r="G23" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>823</v>
       </c>
       <c r="I23" t="s">
@@ -6240,7 +6240,7 @@
       <c r="G24" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>824</v>
       </c>
       <c r="I24" t="s">
@@ -6282,7 +6282,7 @@
       <c r="G25" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>825</v>
       </c>
       <c r="I25" t="s">
@@ -6324,7 +6324,7 @@
       <c r="G26" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>826</v>
       </c>
       <c r="I26" t="s">
@@ -6366,7 +6366,7 @@
       <c r="G27" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>827</v>
       </c>
       <c r="I27" t="s">
@@ -6408,7 +6408,7 @@
       <c r="G28" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>828</v>
       </c>
       <c r="I28" t="s">
@@ -6450,7 +6450,7 @@
       <c r="G29" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>829</v>
       </c>
       <c r="I29" t="s">
@@ -6492,7 +6492,7 @@
       <c r="G30" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>830</v>
       </c>
       <c r="I30" t="s">
@@ -6534,7 +6534,7 @@
       <c r="G31" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>831</v>
       </c>
       <c r="I31" t="s">
@@ -6576,7 +6576,7 @@
       <c r="G32" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>832</v>
       </c>
       <c r="I32" t="s">
@@ -6618,7 +6618,7 @@
       <c r="G33" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>833</v>
       </c>
       <c r="I33" t="s">
@@ -6660,7 +6660,7 @@
       <c r="G34" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>834</v>
       </c>
       <c r="I34" t="s">
@@ -6702,7 +6702,7 @@
       <c r="G35" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>835</v>
       </c>
       <c r="I35" t="s">
@@ -6741,7 +6741,7 @@
       <c r="G36" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>836</v>
       </c>
       <c r="I36" t="s">
@@ -6780,7 +6780,7 @@
       <c r="G37" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>837</v>
       </c>
       <c r="I37" t="s">
@@ -6819,7 +6819,7 @@
       <c r="G38" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>838</v>
       </c>
       <c r="I38" t="s">
@@ -6858,7 +6858,7 @@
       <c r="G39" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>839</v>
       </c>
       <c r="I39" t="s">
@@ -6897,7 +6897,7 @@
       <c r="G40" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>840</v>
       </c>
       <c r="I40" t="s">
@@ -6936,7 +6936,7 @@
       <c r="G41" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>841</v>
       </c>
       <c r="I41" t="s">
@@ -6975,7 +6975,7 @@
       <c r="G42" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>842</v>
       </c>
       <c r="I42" t="s">
@@ -7014,7 +7014,7 @@
       <c r="G43" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>843</v>
       </c>
       <c r="I43" t="s">
@@ -7053,7 +7053,7 @@
       <c r="G44" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>844</v>
       </c>
       <c r="I44" t="s">
@@ -7092,7 +7092,7 @@
       <c r="G45" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>845</v>
       </c>
       <c r="I45" t="s">
@@ -7131,7 +7131,7 @@
       <c r="G46" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>846</v>
       </c>
       <c r="I46" t="s">
@@ -7170,7 +7170,7 @@
       <c r="G47" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>847</v>
       </c>
       <c r="I47" t="s">
@@ -7209,7 +7209,7 @@
       <c r="G48" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>848</v>
       </c>
       <c r="I48" t="s">
@@ -7248,7 +7248,7 @@
       <c r="G49" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>849</v>
       </c>
       <c r="I49" t="s">
@@ -7287,7 +7287,7 @@
       <c r="G50" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>850</v>
       </c>
       <c r="I50" t="s">
@@ -7326,7 +7326,7 @@
       <c r="G51" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I51" t="s">
@@ -7365,7 +7365,7 @@
       <c r="G52" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>852</v>
       </c>
       <c r="I52" t="s">
@@ -7404,7 +7404,7 @@
       <c r="G53" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>853</v>
       </c>
       <c r="I53" t="s">
@@ -7443,7 +7443,7 @@
       <c r="G54" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>854</v>
       </c>
       <c r="I54" t="s">
@@ -7482,7 +7482,7 @@
       <c r="G55" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>855</v>
       </c>
       <c r="I55" t="s">
@@ -7521,7 +7521,7 @@
       <c r="G56" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>856</v>
       </c>
       <c r="I56" t="s">
@@ -7560,7 +7560,7 @@
       <c r="G57" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>857</v>
       </c>
       <c r="I57" t="s">
@@ -7599,7 +7599,7 @@
       <c r="G58" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>858</v>
       </c>
       <c r="I58" t="s">
@@ -7638,7 +7638,7 @@
       <c r="G59" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>859</v>
       </c>
       <c r="I59" t="s">
@@ -7677,7 +7677,7 @@
       <c r="G60" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>860</v>
       </c>
       <c r="I60" t="s">
@@ -7716,7 +7716,7 @@
       <c r="G61" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>861</v>
       </c>
       <c r="I61" t="s">
@@ -7755,7 +7755,7 @@
       <c r="G62" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>862</v>
       </c>
       <c r="I62" t="s">
@@ -7794,7 +7794,7 @@
       <c r="G63" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>863</v>
       </c>
       <c r="I63" t="s">
@@ -7833,7 +7833,7 @@
       <c r="G64" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>864</v>
       </c>
       <c r="I64" t="s">
@@ -7872,7 +7872,7 @@
       <c r="G65" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>865</v>
       </c>
       <c r="I65" t="s">
@@ -7911,7 +7911,7 @@
       <c r="G66" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>866</v>
       </c>
       <c r="I66" t="s">
@@ -7950,7 +7950,7 @@
       <c r="G67" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>867</v>
       </c>
       <c r="I67" t="s">
@@ -7989,7 +7989,7 @@
       <c r="G68" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>868</v>
       </c>
       <c r="I68" t="s">
@@ -8028,7 +8028,7 @@
       <c r="G69" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>869</v>
       </c>
       <c r="I69" t="s">
@@ -8067,7 +8067,7 @@
       <c r="G70" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>870</v>
       </c>
       <c r="I70" t="s">
@@ -8106,7 +8106,7 @@
       <c r="G71" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>871</v>
       </c>
       <c r="I71" t="s">
@@ -8145,7 +8145,7 @@
       <c r="G72" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="1" t="s">
         <v>872</v>
       </c>
       <c r="I72" t="s">
@@ -8184,7 +8184,7 @@
       <c r="G73" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>873</v>
       </c>
       <c r="I73" t="s">
@@ -8223,7 +8223,7 @@
       <c r="G74" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="1" t="s">
         <v>874</v>
       </c>
       <c r="I74" t="s">
@@ -8262,7 +8262,7 @@
       <c r="G75" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>875</v>
       </c>
       <c r="I75" t="s">
@@ -8301,7 +8301,7 @@
       <c r="G76" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>876</v>
       </c>
       <c r="I76" t="s">
@@ -8340,7 +8340,7 @@
       <c r="G77" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="1" t="s">
         <v>877</v>
       </c>
       <c r="I77" t="s">
@@ -8379,7 +8379,7 @@
       <c r="G78" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="1" t="s">
         <v>878</v>
       </c>
       <c r="I78" t="s">
@@ -8418,7 +8418,7 @@
       <c r="G79" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="1" t="s">
         <v>879</v>
       </c>
       <c r="I79" t="s">
@@ -8457,7 +8457,7 @@
       <c r="G80" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="1" t="s">
         <v>880</v>
       </c>
       <c r="I80" t="s">
@@ -8496,7 +8496,7 @@
       <c r="G81" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="1" t="s">
         <v>881</v>
       </c>
       <c r="I81" t="s">
@@ -8532,7 +8532,7 @@
       <c r="G82" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="1" t="s">
         <v>882</v>
       </c>
       <c r="I82" t="s">
@@ -8568,7 +8568,7 @@
       <c r="G83" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="1" t="s">
         <v>883</v>
       </c>
       <c r="I83" t="s">
@@ -8601,7 +8601,7 @@
       <c r="G84" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="1" t="s">
         <v>884</v>
       </c>
       <c r="I84" t="s">
@@ -8634,7 +8634,7 @@
       <c r="G85" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="1" t="s">
         <v>885</v>
       </c>
       <c r="I85" t="s">
@@ -8664,7 +8664,7 @@
       <c r="G86" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="1" t="s">
         <v>886</v>
       </c>
       <c r="I86" t="s">
@@ -8694,7 +8694,7 @@
       <c r="G87" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="1" t="s">
         <v>887</v>
       </c>
       <c r="I87" t="s">
@@ -8724,7 +8724,7 @@
       <c r="G88" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="1" t="s">
         <v>888</v>
       </c>
       <c r="I88" t="s">
@@ -8754,7 +8754,7 @@
       <c r="G89" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="1" t="s">
         <v>889</v>
       </c>
       <c r="I89" t="s">
@@ -8781,7 +8781,7 @@
       <c r="G90" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="1" t="s">
         <v>890</v>
       </c>
       <c r="I90" t="s">
@@ -8808,7 +8808,7 @@
       <c r="G91" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="1" t="s">
         <v>891</v>
       </c>
       <c r="I91" t="s">
@@ -8835,7 +8835,7 @@
       <c r="G92" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="1" t="s">
         <v>892</v>
       </c>
       <c r="I92" t="s">
@@ -8862,7 +8862,7 @@
       <c r="G93" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="1" t="s">
         <v>893</v>
       </c>
       <c r="I93" t="s">
@@ -8889,7 +8889,7 @@
       <c r="G94" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="1" t="s">
         <v>894</v>
       </c>
       <c r="I94" t="s">
@@ -8916,7 +8916,7 @@
       <c r="G95" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="1" t="s">
         <v>895</v>
       </c>
       <c r="I95" t="s">
@@ -8943,7 +8943,7 @@
       <c r="G96" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="1" t="s">
         <v>896</v>
       </c>
       <c r="I96" t="s">
@@ -8970,7 +8970,7 @@
       <c r="G97" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="1" t="s">
         <v>897</v>
       </c>
       <c r="I97" t="s">
@@ -8997,7 +8997,7 @@
       <c r="G98" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="1" t="s">
         <v>898</v>
       </c>
       <c r="I98" t="s">
@@ -9024,7 +9024,7 @@
       <c r="G99" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="1" t="s">
         <v>899</v>
       </c>
       <c r="I99" t="s">
@@ -9051,7 +9051,7 @@
       <c r="G100" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>900</v>
       </c>
       <c r="I100" t="s">
@@ -9078,7 +9078,7 @@
       <c r="G101" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="1" t="s">
         <v>901</v>
       </c>
       <c r="I101" t="s">
@@ -9105,7 +9105,7 @@
       <c r="G102" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="1" t="s">
         <v>902</v>
       </c>
       <c r="I102" t="s">
@@ -9132,7 +9132,7 @@
       <c r="G103" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="1" t="s">
         <v>903</v>
       </c>
       <c r="I103" t="s">
@@ -9159,7 +9159,7 @@
       <c r="G104" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="1" t="s">
         <v>904</v>
       </c>
       <c r="I104" t="s">
@@ -9186,7 +9186,7 @@
       <c r="G105" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="1" t="s">
         <v>905</v>
       </c>
       <c r="I105" t="s">
@@ -9213,7 +9213,7 @@
       <c r="G106" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="1" t="s">
         <v>906</v>
       </c>
       <c r="I106" t="s">
@@ -9240,7 +9240,7 @@
       <c r="G107" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="1" t="s">
         <v>907</v>
       </c>
       <c r="I107" t="s">
@@ -9267,7 +9267,7 @@
       <c r="G108" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="1" t="s">
         <v>908</v>
       </c>
       <c r="I108" t="s">
@@ -9294,7 +9294,7 @@
       <c r="G109" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="1" t="s">
         <v>909</v>
       </c>
       <c r="I109" t="s">
@@ -9318,7 +9318,7 @@
       <c r="G110" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="1" t="s">
         <v>910</v>
       </c>
       <c r="I110" t="s">
@@ -9342,7 +9342,7 @@
       <c r="G111" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="1" t="s">
         <v>911</v>
       </c>
       <c r="I111" t="s">
@@ -9366,7 +9366,7 @@
       <c r="G112" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="1" t="s">
         <v>912</v>
       </c>
       <c r="I112" t="s">
@@ -9390,7 +9390,7 @@
       <c r="G113" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="1" t="s">
         <v>913</v>
       </c>
       <c r="I113" t="s">
@@ -9414,7 +9414,7 @@
       <c r="G114" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="1" t="s">
         <v>914</v>
       </c>
       <c r="I114" t="s">
@@ -9438,7 +9438,7 @@
       <c r="G115" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="1" t="s">
         <v>915</v>
       </c>
       <c r="I115" t="s">
@@ -9462,7 +9462,7 @@
       <c r="G116" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="1" t="s">
         <v>916</v>
       </c>
       <c r="I116" t="s">
@@ -9486,7 +9486,7 @@
       <c r="G117" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="1" t="s">
         <v>917</v>
       </c>
       <c r="I117" t="s">
@@ -9510,7 +9510,7 @@
       <c r="G118" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="1" t="s">
         <v>918</v>
       </c>
       <c r="I118" t="s">
@@ -9534,7 +9534,7 @@
       <c r="G119" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="1" t="s">
         <v>919</v>
       </c>
       <c r="I119" t="s">
@@ -9558,7 +9558,7 @@
       <c r="G120" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="1" t="s">
         <v>920</v>
       </c>
       <c r="I120" t="s">
@@ -9582,7 +9582,7 @@
       <c r="G121" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="1" t="s">
         <v>921</v>
       </c>
       <c r="I121" t="s">
@@ -9606,7 +9606,7 @@
       <c r="G122" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="1" t="s">
         <v>922</v>
       </c>
       <c r="I122" t="s">
@@ -9630,7 +9630,7 @@
       <c r="G123" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>923</v>
       </c>
       <c r="I123" t="s">
@@ -9654,7 +9654,7 @@
       <c r="G124" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="1" t="s">
         <v>924</v>
       </c>
       <c r="I124" t="s">
@@ -9678,7 +9678,7 @@
       <c r="G125" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="1" t="s">
         <v>925</v>
       </c>
       <c r="I125" t="s">
@@ -9702,7 +9702,7 @@
       <c r="G126" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="1" t="s">
         <v>926</v>
       </c>
       <c r="I126" t="s">
@@ -9726,7 +9726,7 @@
       <c r="G127" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="1" t="s">
         <v>927</v>
       </c>
       <c r="I127" t="s">
@@ -9750,7 +9750,7 @@
       <c r="G128" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="1" t="s">
         <v>928</v>
       </c>
       <c r="I128" t="s">
@@ -9774,7 +9774,7 @@
       <c r="G129" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="1" t="s">
         <v>929</v>
       </c>
       <c r="I129" t="s">
@@ -9798,7 +9798,7 @@
       <c r="G130" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="1" t="s">
         <v>930</v>
       </c>
       <c r="I130" t="s">
@@ -9822,7 +9822,7 @@
       <c r="G131" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="1" t="s">
         <v>931</v>
       </c>
       <c r="I131" t="s">
@@ -9846,7 +9846,7 @@
       <c r="G132" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="1" t="s">
         <v>932</v>
       </c>
       <c r="I132" t="s">
@@ -9870,7 +9870,7 @@
       <c r="G133" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="1" t="s">
         <v>933</v>
       </c>
       <c r="I133" t="s">
@@ -9894,7 +9894,7 @@
       <c r="G134" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="1" t="s">
         <v>934</v>
       </c>
       <c r="I134" t="s">
@@ -9918,7 +9918,7 @@
       <c r="G135" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="1" t="s">
         <v>935</v>
       </c>
       <c r="I135" t="s">
@@ -9942,7 +9942,7 @@
       <c r="G136" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="1" t="s">
         <v>936</v>
       </c>
       <c r="I136" t="s">
@@ -9966,7 +9966,7 @@
       <c r="G137" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="1" t="s">
         <v>937</v>
       </c>
       <c r="I137" t="s">
@@ -9990,7 +9990,7 @@
       <c r="G138" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="1" t="s">
         <v>938</v>
       </c>
       <c r="I138" t="s">
@@ -10014,7 +10014,7 @@
       <c r="G139" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="1" t="s">
         <v>939</v>
       </c>
       <c r="I139" t="s">
@@ -10038,7 +10038,7 @@
       <c r="G140" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>940</v>
       </c>
       <c r="I140" t="s">
@@ -10062,7 +10062,7 @@
       <c r="G141" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="1" t="s">
         <v>941</v>
       </c>
       <c r="I141" t="s">
@@ -10083,7 +10083,7 @@
       <c r="F142" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="1" t="s">
         <v>942</v>
       </c>
       <c r="I142" t="s">
@@ -10104,7 +10104,7 @@
       <c r="F143" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="1" t="s">
         <v>943</v>
       </c>
       <c r="I143" t="s">
@@ -10125,7 +10125,7 @@
       <c r="F144" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="1" t="s">
         <v>944</v>
       </c>
       <c r="I144" t="s">
@@ -10146,7 +10146,7 @@
       <c r="F145" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="1" t="s">
         <v>945</v>
       </c>
       <c r="I145" t="s">
@@ -10167,7 +10167,7 @@
       <c r="F146" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="1" t="s">
         <v>946</v>
       </c>
       <c r="I146" t="s">
@@ -10188,7 +10188,7 @@
       <c r="F147" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>947</v>
       </c>
       <c r="I147" t="s">
@@ -10206,7 +10206,7 @@
       <c r="E148" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="1" t="s">
         <v>948</v>
       </c>
       <c r="I148" t="s">
@@ -10224,7 +10224,7 @@
       <c r="E149" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="1" t="s">
         <v>949</v>
       </c>
       <c r="I149" t="s">
@@ -10242,7 +10242,7 @@
       <c r="E150" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="1" t="s">
         <v>950</v>
       </c>
       <c r="I150" t="s">
@@ -10260,7 +10260,7 @@
       <c r="E151" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="1" t="s">
         <v>951</v>
       </c>
       <c r="I151" t="s">
@@ -10275,7 +10275,7 @@
       <c r="N151" s="2"/>
     </row>
     <row r="152" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H152" t="s">
+      <c r="H152" s="1" t="s">
         <v>952</v>
       </c>
       <c r="J152" t="s">
@@ -10287,7 +10287,7 @@
       <c r="N152" s="2"/>
     </row>
     <row r="153" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H153" t="s">
+      <c r="H153" s="1" t="s">
         <v>953</v>
       </c>
       <c r="J153" t="s">
@@ -10299,7 +10299,7 @@
       <c r="N153" s="2"/>
     </row>
     <row r="154" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H154" t="s">
+      <c r="H154" s="1" t="s">
         <v>954</v>
       </c>
       <c r="J154" t="s">
@@ -10311,7 +10311,7 @@
       <c r="N154" s="2"/>
     </row>
     <row r="155" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H155" t="s">
+      <c r="H155" s="1" t="s">
         <v>955</v>
       </c>
       <c r="J155" t="s">
@@ -10323,7 +10323,7 @@
       <c r="N155" s="2"/>
     </row>
     <row r="156" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H156" t="s">
+      <c r="H156" s="1" t="s">
         <v>956</v>
       </c>
       <c r="J156" t="s">
@@ -10335,7 +10335,7 @@
       <c r="N156" s="2"/>
     </row>
     <row r="157" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H157" t="s">
+      <c r="H157" s="1" t="s">
         <v>957</v>
       </c>
       <c r="J157" t="s">
@@ -10347,7 +10347,7 @@
       <c r="N157" s="2"/>
     </row>
     <row r="158" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H158" t="s">
+      <c r="H158" s="1" t="s">
         <v>958</v>
       </c>
       <c r="J158" t="s">
@@ -10359,7 +10359,7 @@
       <c r="N158" s="2"/>
     </row>
     <row r="159" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H159" t="s">
+      <c r="H159" s="1" t="s">
         <v>959</v>
       </c>
       <c r="J159" t="s">
@@ -10371,7 +10371,7 @@
       <c r="N159" s="2"/>
     </row>
     <row r="160" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H160" t="s">
+      <c r="H160" s="1" t="s">
         <v>960</v>
       </c>
       <c r="J160" t="s">
@@ -10383,7 +10383,7 @@
       <c r="N160" s="2"/>
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H161" t="s">
+      <c r="H161" s="1" t="s">
         <v>961</v>
       </c>
       <c r="J161" t="s">
@@ -10395,7 +10395,7 @@
       <c r="N161" s="2"/>
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H162" t="s">
+      <c r="H162" s="1" t="s">
         <v>962</v>
       </c>
       <c r="J162" t="s">
@@ -10407,7 +10407,7 @@
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H163" t="s">
+      <c r="H163" s="1" t="s">
         <v>963</v>
       </c>
       <c r="J163" t="s">
@@ -10419,7 +10419,7 @@
       <c r="N163" s="2"/>
     </row>
     <row r="164" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H164" t="s">
+      <c r="H164" s="1" t="s">
         <v>964</v>
       </c>
       <c r="J164" t="s">
@@ -10431,7 +10431,7 @@
       <c r="N164" s="2"/>
     </row>
     <row r="165" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H165" t="s">
+      <c r="H165" s="1" t="s">
         <v>965</v>
       </c>
       <c r="J165" t="s">
@@ -10443,7 +10443,7 @@
       <c r="N165" s="2"/>
     </row>
     <row r="166" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H166" t="s">
+      <c r="H166" s="1" t="s">
         <v>966</v>
       </c>
       <c r="K166" t="s">
@@ -10452,7 +10452,7 @@
       <c r="N166" s="2"/>
     </row>
     <row r="167" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H167" t="s">
+      <c r="H167" s="1" t="s">
         <v>967</v>
       </c>
       <c r="K167" t="s">
@@ -10461,7 +10461,7 @@
       <c r="N167" s="2"/>
     </row>
     <row r="168" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H168" t="s">
+      <c r="H168" s="1" t="s">
         <v>968</v>
       </c>
       <c r="K168" t="s">
@@ -10470,7 +10470,7 @@
       <c r="N168" s="2"/>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H169" t="s">
+      <c r="H169" s="1" t="s">
         <v>969</v>
       </c>
       <c r="K169" t="s">
@@ -10479,7 +10479,7 @@
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H170" t="s">
+      <c r="H170" s="1" t="s">
         <v>970</v>
       </c>
       <c r="K170" t="s">
@@ -10488,7 +10488,7 @@
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H171" t="s">
+      <c r="H171" s="1" t="s">
         <v>971</v>
       </c>
       <c r="K171" t="s">
@@ -10497,7 +10497,7 @@
       <c r="N171" s="2"/>
     </row>
     <row r="172" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H172" t="s">
+      <c r="H172" s="1" t="s">
         <v>972</v>
       </c>
       <c r="K172" t="s">
@@ -10506,7 +10506,7 @@
       <c r="N172" s="2"/>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H173" t="s">
+      <c r="H173" s="1" t="s">
         <v>973</v>
       </c>
       <c r="K173" t="s">
@@ -10515,7 +10515,7 @@
       <c r="N173" s="2"/>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H174" t="s">
+      <c r="H174" s="1" t="s">
         <v>974</v>
       </c>
       <c r="K174" t="s">
@@ -10524,7 +10524,7 @@
       <c r="N174" s="2"/>
     </row>
     <row r="175" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H175" t="s">
+      <c r="H175" s="1" t="s">
         <v>975</v>
       </c>
       <c r="K175" t="s">
@@ -10533,7 +10533,7 @@
       <c r="N175" s="2"/>
     </row>
     <row r="176" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H176" t="s">
+      <c r="H176" s="1" t="s">
         <v>976</v>
       </c>
       <c r="K176" t="s">
@@ -10542,7 +10542,7 @@
       <c r="N176" s="2"/>
     </row>
     <row r="177" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H177" t="s">
+      <c r="H177" s="1" t="s">
         <v>977</v>
       </c>
       <c r="K177" t="s">
@@ -10551,7 +10551,7 @@
       <c r="N177" s="2"/>
     </row>
     <row r="178" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H178" t="s">
+      <c r="H178" s="1" t="s">
         <v>978</v>
       </c>
       <c r="K178" t="s">
@@ -10560,7 +10560,7 @@
       <c r="N178" s="2"/>
     </row>
     <row r="179" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H179" t="s">
+      <c r="H179" s="1" t="s">
         <v>979</v>
       </c>
       <c r="K179" t="s">
@@ -10569,121 +10569,121 @@
       <c r="N179" s="2"/>
     </row>
     <row r="180" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H180" t="s">
+      <c r="H180" s="1" t="s">
         <v>980</v>
       </c>
       <c r="N180" s="2"/>
     </row>
     <row r="181" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H181" t="s">
+      <c r="H181" s="1" t="s">
         <v>981</v>
       </c>
       <c r="N181" s="2"/>
     </row>
     <row r="182" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H182" t="s">
+      <c r="H182" s="1" t="s">
         <v>982</v>
       </c>
       <c r="N182" s="2"/>
     </row>
     <row r="183" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H183" t="s">
+      <c r="H183" s="1" t="s">
         <v>983</v>
       </c>
       <c r="N183" s="2"/>
     </row>
     <row r="184" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H184" t="s">
+      <c r="H184" s="1" t="s">
         <v>984</v>
       </c>
       <c r="N184" s="2"/>
     </row>
     <row r="185" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H185" t="s">
+      <c r="H185" s="1" t="s">
         <v>985</v>
       </c>
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H186" t="s">
+      <c r="H186" s="1" t="s">
         <v>986</v>
       </c>
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H187" t="s">
+      <c r="H187" s="1" t="s">
         <v>987</v>
       </c>
       <c r="N187" s="2"/>
     </row>
     <row r="188" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H188" t="s">
+      <c r="H188" s="1" t="s">
         <v>988</v>
       </c>
       <c r="N188" s="2"/>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H189" t="s">
+      <c r="H189" s="1" t="s">
         <v>989</v>
       </c>
       <c r="N189" s="2"/>
     </row>
     <row r="190" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H190" t="s">
+      <c r="H190" s="1" t="s">
         <v>990</v>
       </c>
       <c r="N190" s="2"/>
     </row>
     <row r="191" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H191" t="s">
+      <c r="H191" s="1" t="s">
         <v>991</v>
       </c>
       <c r="N191" s="2"/>
     </row>
     <row r="192" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H192" t="s">
+      <c r="H192" s="1" t="s">
         <v>992</v>
       </c>
       <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H193" t="s">
+      <c r="H193" s="1" t="s">
         <v>993</v>
       </c>
       <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H194" t="s">
+      <c r="H194" s="1" t="s">
         <v>994</v>
       </c>
       <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H195" t="s">
+      <c r="H195" s="1" t="s">
         <v>995</v>
       </c>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H196" t="s">
+      <c r="H196" s="1" t="s">
         <v>996</v>
       </c>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H197" t="s">
+      <c r="H197" s="1" t="s">
         <v>997</v>
       </c>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H198" t="s">
+      <c r="H198" s="1" t="s">
         <v>998</v>
       </c>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H199" t="s">
+      <c r="H199" s="1" t="s">
         <v>999</v>
       </c>
       <c r="N199" s="2"/>

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="36270" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I1:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,7 +5277,7 @@
       <c r="H1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>511</v>
       </c>
       <c r="J1" t="s">
@@ -5319,7 +5319,7 @@
       <c r="H2" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="J2" t="s">
@@ -5361,7 +5361,7 @@
       <c r="H3" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="J3" t="s">
@@ -5403,7 +5403,7 @@
       <c r="H4" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="J4" t="s">
@@ -5445,7 +5445,7 @@
       <c r="H5" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="J5" t="s">
@@ -5487,7 +5487,7 @@
       <c r="H6" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="J6" t="s">
@@ -5529,7 +5529,7 @@
       <c r="H7" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="J7" t="s">
@@ -5571,7 +5571,7 @@
       <c r="H8" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="J8" t="s">
@@ -5613,7 +5613,7 @@
       <c r="H9" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="J9" t="s">
@@ -5655,7 +5655,7 @@
       <c r="H10" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="J10" t="s">
@@ -5697,7 +5697,7 @@
       <c r="H11" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="J11" t="s">
@@ -5739,7 +5739,7 @@
       <c r="H12" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="J12" t="s">
@@ -5781,7 +5781,7 @@
       <c r="H13" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J13" t="s">
@@ -5823,7 +5823,7 @@
       <c r="H14" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="J14" t="s">
@@ -5865,7 +5865,7 @@
       <c r="H15" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="J15" t="s">
@@ -5907,7 +5907,7 @@
       <c r="H16" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="J16" t="s">
@@ -5949,7 +5949,7 @@
       <c r="H17" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="J17" t="s">
@@ -5991,7 +5991,7 @@
       <c r="H18" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="J18" t="s">
@@ -6033,7 +6033,7 @@
       <c r="H19" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="J19" t="s">
@@ -6075,7 +6075,7 @@
       <c r="H20" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="J20" t="s">
@@ -6117,7 +6117,7 @@
       <c r="H21" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="J21" t="s">
@@ -6159,7 +6159,7 @@
       <c r="H22" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="J22" t="s">
@@ -6201,7 +6201,7 @@
       <c r="H23" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="J23" t="s">
@@ -6243,7 +6243,7 @@
       <c r="H24" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="J24" t="s">
@@ -6285,7 +6285,7 @@
       <c r="H25" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="J25" t="s">
@@ -6327,7 +6327,7 @@
       <c r="H26" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="J26" t="s">
@@ -6369,7 +6369,7 @@
       <c r="H27" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="J27" t="s">
@@ -6411,7 +6411,7 @@
       <c r="H28" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="J28" t="s">
@@ -6453,7 +6453,7 @@
       <c r="H29" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="J29" t="s">
@@ -6495,7 +6495,7 @@
       <c r="H30" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="J30" t="s">
@@ -6537,7 +6537,7 @@
       <c r="H31" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="J31" t="s">
@@ -6579,7 +6579,7 @@
       <c r="H32" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="J32" t="s">
@@ -6621,7 +6621,7 @@
       <c r="H33" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="J33" t="s">
@@ -6663,7 +6663,7 @@
       <c r="H34" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="J34" t="s">
@@ -6705,7 +6705,7 @@
       <c r="H35" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="J35" t="s">
@@ -6744,7 +6744,7 @@
       <c r="H36" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="J36" t="s">
@@ -6783,7 +6783,7 @@
       <c r="H37" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="J37" t="s">
@@ -6822,7 +6822,7 @@
       <c r="H38" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="J38" t="s">
@@ -6861,7 +6861,7 @@
       <c r="H39" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="J39" t="s">
@@ -6900,7 +6900,7 @@
       <c r="H40" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="J40" t="s">
@@ -6939,7 +6939,7 @@
       <c r="H41" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="J41" t="s">
@@ -6978,7 +6978,7 @@
       <c r="H42" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="J42" t="s">
@@ -7017,7 +7017,7 @@
       <c r="H43" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="J43" t="s">
@@ -7056,7 +7056,7 @@
       <c r="H44" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="J44" t="s">
@@ -7095,7 +7095,7 @@
       <c r="H45" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="J45" t="s">
@@ -7134,7 +7134,7 @@
       <c r="H46" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="J46" t="s">
@@ -7173,7 +7173,7 @@
       <c r="H47" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="J47" t="s">
@@ -7212,7 +7212,7 @@
       <c r="H48" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="J48" t="s">
@@ -7251,7 +7251,7 @@
       <c r="H49" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="J49" t="s">
@@ -7290,7 +7290,7 @@
       <c r="H50" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="J50" t="s">
@@ -7329,7 +7329,7 @@
       <c r="H51" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="J51" t="s">
@@ -7368,7 +7368,7 @@
       <c r="H52" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="J52" t="s">
@@ -7407,7 +7407,7 @@
       <c r="H53" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="J53" t="s">
@@ -7446,7 +7446,7 @@
       <c r="H54" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="J54" t="s">
@@ -7485,7 +7485,7 @@
       <c r="H55" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="J55" t="s">
@@ -7524,7 +7524,7 @@
       <c r="H56" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="J56" t="s">
@@ -7563,7 +7563,7 @@
       <c r="H57" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="J57" t="s">
@@ -7602,7 +7602,7 @@
       <c r="H58" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="J58" t="s">
@@ -7641,7 +7641,7 @@
       <c r="H59" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="J59" t="s">
@@ -7680,7 +7680,7 @@
       <c r="H60" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="J60" t="s">
@@ -7719,7 +7719,7 @@
       <c r="H61" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="J61" t="s">
@@ -7758,7 +7758,7 @@
       <c r="H62" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="J62" t="s">
@@ -7797,7 +7797,7 @@
       <c r="H63" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="J63" t="s">
@@ -7836,7 +7836,7 @@
       <c r="H64" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="J64" t="s">
@@ -7875,7 +7875,7 @@
       <c r="H65" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>1063</v>
       </c>
       <c r="J65" t="s">
@@ -7914,7 +7914,7 @@
       <c r="H66" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="J66" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="36270" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="39060" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I1:I66"/>
+    <sheetView tabSelected="1" topLeftCell="K73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I151" sqref="I67:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,7 +7953,7 @@
       <c r="H67" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="J67" t="s">
@@ -7992,7 +7992,7 @@
       <c r="H68" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="J68" t="s">
@@ -8031,7 +8031,7 @@
       <c r="H69" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="J69" t="s">
@@ -8070,7 +8070,7 @@
       <c r="H70" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="J70" t="s">
@@ -8109,7 +8109,7 @@
       <c r="H71" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="J71" t="s">
@@ -8148,7 +8148,7 @@
       <c r="H72" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="J72" t="s">
@@ -8187,7 +8187,7 @@
       <c r="H73" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="J73" t="s">
@@ -8226,7 +8226,7 @@
       <c r="H74" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="J74" t="s">
@@ -8265,7 +8265,7 @@
       <c r="H75" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="J75" t="s">
@@ -8304,7 +8304,7 @@
       <c r="H76" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="J76" t="s">
@@ -8343,7 +8343,7 @@
       <c r="H77" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="J77" t="s">
@@ -8382,7 +8382,7 @@
       <c r="H78" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="J78" t="s">
@@ -8421,7 +8421,7 @@
       <c r="H79" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="J79" t="s">
@@ -8460,7 +8460,7 @@
       <c r="H80" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="J80" t="s">
@@ -8499,7 +8499,7 @@
       <c r="H81" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="J81" t="s">
@@ -8535,7 +8535,7 @@
       <c r="H82" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="J82" t="s">
@@ -8571,7 +8571,7 @@
       <c r="H83" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="J83" t="s">
@@ -8604,7 +8604,7 @@
       <c r="H84" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="J84" t="s">
@@ -8637,7 +8637,7 @@
       <c r="H85" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="J85" t="s">
@@ -8667,7 +8667,7 @@
       <c r="H86" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="J86" t="s">
@@ -8697,7 +8697,7 @@
       <c r="H87" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="J87" t="s">
@@ -8727,7 +8727,7 @@
       <c r="H88" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="J88" t="s">
@@ -8757,7 +8757,7 @@
       <c r="H89" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="J89" t="s">
@@ -8784,7 +8784,7 @@
       <c r="H90" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="J90" t="s">
@@ -8811,7 +8811,7 @@
       <c r="H91" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="J91" t="s">
@@ -8838,7 +8838,7 @@
       <c r="H92" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="J92" t="s">
@@ -8865,7 +8865,7 @@
       <c r="H93" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="J93" t="s">
@@ -8892,7 +8892,7 @@
       <c r="H94" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="J94" t="s">
@@ -8919,7 +8919,7 @@
       <c r="H95" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="J95" t="s">
@@ -8946,7 +8946,7 @@
       <c r="H96" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="J96" t="s">
@@ -8973,7 +8973,7 @@
       <c r="H97" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="J97" t="s">
@@ -9000,7 +9000,7 @@
       <c r="H98" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="J98" t="s">
@@ -9027,7 +9027,7 @@
       <c r="H99" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="J99" t="s">
@@ -9054,7 +9054,7 @@
       <c r="H100" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="J100" t="s">
@@ -9081,7 +9081,7 @@
       <c r="H101" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="J101" t="s">
@@ -9108,7 +9108,7 @@
       <c r="H102" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="J102" t="s">
@@ -9135,7 +9135,7 @@
       <c r="H103" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="J103" t="s">
@@ -9162,7 +9162,7 @@
       <c r="H104" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="J104" t="s">
@@ -9189,7 +9189,7 @@
       <c r="H105" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="J105" t="s">
@@ -9216,7 +9216,7 @@
       <c r="H106" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="J106" t="s">
@@ -9243,7 +9243,7 @@
       <c r="H107" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="J107" t="s">
@@ -9270,7 +9270,7 @@
       <c r="H108" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="J108" t="s">
@@ -9297,7 +9297,7 @@
       <c r="H109" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="J109" t="s">
@@ -9321,7 +9321,7 @@
       <c r="H110" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="J110" t="s">
@@ -9345,7 +9345,7 @@
       <c r="H111" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="J111" t="s">
@@ -9369,7 +9369,7 @@
       <c r="H112" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="J112" t="s">
@@ -9393,7 +9393,7 @@
       <c r="H113" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="J113" t="s">
@@ -9417,7 +9417,7 @@
       <c r="H114" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="J114" t="s">
@@ -9441,7 +9441,7 @@
       <c r="H115" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="J115" t="s">
@@ -9465,7 +9465,7 @@
       <c r="H116" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="J116" t="s">
@@ -9489,7 +9489,7 @@
       <c r="H117" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="J117" t="s">
@@ -9513,7 +9513,7 @@
       <c r="H118" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="J118" t="s">
@@ -9537,7 +9537,7 @@
       <c r="H119" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="J119" t="s">
@@ -9561,7 +9561,7 @@
       <c r="H120" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="J120" t="s">
@@ -9585,7 +9585,7 @@
       <c r="H121" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="J121" t="s">
@@ -9609,7 +9609,7 @@
       <c r="H122" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="J122" t="s">
@@ -9633,7 +9633,7 @@
       <c r="H123" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="J123" t="s">
@@ -9657,7 +9657,7 @@
       <c r="H124" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="J124" t="s">
@@ -9681,7 +9681,7 @@
       <c r="H125" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="J125" t="s">
@@ -9705,7 +9705,7 @@
       <c r="H126" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="J126" t="s">
@@ -9729,7 +9729,7 @@
       <c r="H127" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="J127" t="s">
@@ -9753,7 +9753,7 @@
       <c r="H128" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="J128" t="s">
@@ -9777,7 +9777,7 @@
       <c r="H129" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="J129" t="s">
@@ -9801,7 +9801,7 @@
       <c r="H130" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="J130" t="s">
@@ -9825,7 +9825,7 @@
       <c r="H131" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="J131" t="s">
@@ -9849,7 +9849,7 @@
       <c r="H132" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="1" t="s">
         <v>1130</v>
       </c>
       <c r="J132" t="s">
@@ -9873,7 +9873,7 @@
       <c r="H133" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>1131</v>
       </c>
       <c r="J133" t="s">
@@ -9897,7 +9897,7 @@
       <c r="H134" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="J134" t="s">
@@ -9921,7 +9921,7 @@
       <c r="H135" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="J135" t="s">
@@ -9945,7 +9945,7 @@
       <c r="H136" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="J136" t="s">
@@ -9969,7 +9969,7 @@
       <c r="H137" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="J137" t="s">
@@ -9993,7 +9993,7 @@
       <c r="H138" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="J138" t="s">
@@ -10017,7 +10017,7 @@
       <c r="H139" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="J139" t="s">
@@ -10041,7 +10041,7 @@
       <c r="H140" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="J140" t="s">
@@ -10065,7 +10065,7 @@
       <c r="H141" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="1" t="s">
         <v>1139</v>
       </c>
       <c r="J141" t="s">
@@ -10086,7 +10086,7 @@
       <c r="H142" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="1" t="s">
         <v>1140</v>
       </c>
       <c r="J142" t="s">
@@ -10107,7 +10107,7 @@
       <c r="H143" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="J143" t="s">
@@ -10128,7 +10128,7 @@
       <c r="H144" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="1" t="s">
         <v>1142</v>
       </c>
       <c r="J144" t="s">
@@ -10149,7 +10149,7 @@
       <c r="H145" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="J145" t="s">
@@ -10170,7 +10170,7 @@
       <c r="H146" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="J146" t="s">
@@ -10191,7 +10191,7 @@
       <c r="H147" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="J147" t="s">
@@ -10209,7 +10209,7 @@
       <c r="H148" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="J148" t="s">
@@ -10227,7 +10227,7 @@
       <c r="H149" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="J149" t="s">
@@ -10245,7 +10245,7 @@
       <c r="H150" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="J150" t="s">
@@ -10263,7 +10263,7 @@
       <c r="H151" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="1" t="s">
         <v>1149</v>
       </c>
       <c r="J151" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="41850" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I151" sqref="I67:I151"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K179" sqref="K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5245,8 +5245,8 @@
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
@@ -5280,7 +5280,7 @@
       <c r="I1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>512</v>
       </c>
       <c r="K1" t="s">
@@ -5322,7 +5322,7 @@
       <c r="I2" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="K2" t="s">
@@ -5364,7 +5364,7 @@
       <c r="I3" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="K3" t="s">
@@ -5406,7 +5406,7 @@
       <c r="I4" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="K4" t="s">
@@ -5448,7 +5448,7 @@
       <c r="I5" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="K5" t="s">
@@ -5490,7 +5490,7 @@
       <c r="I6" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="K6" t="s">
@@ -5532,7 +5532,7 @@
       <c r="I7" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="K7" t="s">
@@ -5574,7 +5574,7 @@
       <c r="I8" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="K8" t="s">
@@ -5616,7 +5616,7 @@
       <c r="I9" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="K9" t="s">
@@ -5658,7 +5658,7 @@
       <c r="I10" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="K10" t="s">
@@ -5700,7 +5700,7 @@
       <c r="I11" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="K11" t="s">
@@ -5742,7 +5742,7 @@
       <c r="I12" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="K12" t="s">
@@ -5784,7 +5784,7 @@
       <c r="I13" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="K13" t="s">
@@ -5826,7 +5826,7 @@
       <c r="I14" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="K14" t="s">
@@ -5868,7 +5868,7 @@
       <c r="I15" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="K15" t="s">
@@ -5910,7 +5910,7 @@
       <c r="I16" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="K16" t="s">
@@ -5952,7 +5952,7 @@
       <c r="I17" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="K17" t="s">
@@ -5994,7 +5994,7 @@
       <c r="I18" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="K18" t="s">
@@ -6036,7 +6036,7 @@
       <c r="I19" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="K19" t="s">
@@ -6078,7 +6078,7 @@
       <c r="I20" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="K20" t="s">
@@ -6120,7 +6120,7 @@
       <c r="I21" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="K21" t="s">
@@ -6162,7 +6162,7 @@
       <c r="I22" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="K22" t="s">
@@ -6204,7 +6204,7 @@
       <c r="I23" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="K23" t="s">
@@ -6246,7 +6246,7 @@
       <c r="I24" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="K24" t="s">
@@ -6288,7 +6288,7 @@
       <c r="I25" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="K25" t="s">
@@ -6330,7 +6330,7 @@
       <c r="I26" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>1174</v>
       </c>
       <c r="K26" t="s">
@@ -6372,7 +6372,7 @@
       <c r="I27" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="K27" t="s">
@@ -6414,7 +6414,7 @@
       <c r="I28" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="K28" t="s">
@@ -6456,7 +6456,7 @@
       <c r="I29" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="K29" t="s">
@@ -6498,7 +6498,7 @@
       <c r="I30" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="K30" t="s">
@@ -6540,7 +6540,7 @@
       <c r="I31" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="K31" t="s">
@@ -6582,7 +6582,7 @@
       <c r="I32" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="K32" t="s">
@@ -6624,7 +6624,7 @@
       <c r="I33" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="K33" t="s">
@@ -6666,7 +6666,7 @@
       <c r="I34" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="K34" t="s">
@@ -6708,7 +6708,7 @@
       <c r="I35" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="K35" t="s">
@@ -6747,7 +6747,7 @@
       <c r="I36" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="K36" t="s">
@@ -6786,7 +6786,7 @@
       <c r="I37" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="K37" t="s">
@@ -6825,7 +6825,7 @@
       <c r="I38" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="K38" t="s">
@@ -6864,7 +6864,7 @@
       <c r="I39" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="K39" t="s">
@@ -6903,7 +6903,7 @@
       <c r="I40" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="K40" t="s">
@@ -6942,7 +6942,7 @@
       <c r="I41" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="K41" t="s">
@@ -6981,7 +6981,7 @@
       <c r="I42" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="K42" t="s">
@@ -7020,7 +7020,7 @@
       <c r="I43" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="K43" t="s">
@@ -7059,7 +7059,7 @@
       <c r="I44" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="K44" t="s">
@@ -7098,7 +7098,7 @@
       <c r="I45" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="K45" t="s">
@@ -7137,7 +7137,7 @@
       <c r="I46" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="K46" t="s">
@@ -7176,7 +7176,7 @@
       <c r="I47" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="K47" t="s">
@@ -7215,7 +7215,7 @@
       <c r="I48" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="K48" t="s">
@@ -7254,7 +7254,7 @@
       <c r="I49" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="K49" t="s">
@@ -7293,7 +7293,7 @@
       <c r="I50" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="K50" t="s">
@@ -7332,7 +7332,7 @@
       <c r="I51" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="K51" t="s">
@@ -7371,7 +7371,7 @@
       <c r="I52" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="K52" t="s">
@@ -7410,7 +7410,7 @@
       <c r="I53" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="K53" t="s">
@@ -7449,7 +7449,7 @@
       <c r="I54" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="K54" t="s">
@@ -7488,7 +7488,7 @@
       <c r="I55" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="K55" t="s">
@@ -7527,7 +7527,7 @@
       <c r="I56" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="K56" t="s">
@@ -7566,7 +7566,7 @@
       <c r="I57" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="K57" t="s">
@@ -7605,7 +7605,7 @@
       <c r="I58" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="K58" t="s">
@@ -7644,7 +7644,7 @@
       <c r="I59" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="K59" t="s">
@@ -7683,7 +7683,7 @@
       <c r="I60" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="K60" t="s">
@@ -7722,7 +7722,7 @@
       <c r="I61" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="K61" t="s">
@@ -7761,7 +7761,7 @@
       <c r="I62" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="K62" t="s">
@@ -7800,7 +7800,7 @@
       <c r="I63" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="K63" t="s">
@@ -7839,7 +7839,7 @@
       <c r="I64" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="K64" t="s">
@@ -7878,7 +7878,7 @@
       <c r="I65" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="K65" t="s">
@@ -7917,7 +7917,7 @@
       <c r="I66" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="K66" t="s">
@@ -7956,7 +7956,7 @@
       <c r="I67" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="K67" t="s">
@@ -7995,7 +7995,7 @@
       <c r="I68" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="K68" t="s">
@@ -8034,7 +8034,7 @@
       <c r="I69" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="K69" t="s">
@@ -8073,7 +8073,7 @@
       <c r="I70" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="K70" t="s">
@@ -8112,7 +8112,7 @@
       <c r="I71" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="K71" t="s">
@@ -8151,7 +8151,7 @@
       <c r="I72" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="K72" t="s">
@@ -8190,7 +8190,7 @@
       <c r="I73" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="K73" t="s">
@@ -8229,7 +8229,7 @@
       <c r="I74" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="K74" t="s">
@@ -8268,7 +8268,7 @@
       <c r="I75" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="K75" t="s">
@@ -8307,7 +8307,7 @@
       <c r="I76" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="K76" t="s">
@@ -8346,7 +8346,7 @@
       <c r="I77" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="K77" t="s">
@@ -8385,7 +8385,7 @@
       <c r="I78" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="K78" t="s">
@@ -8424,7 +8424,7 @@
       <c r="I79" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="K79" t="s">
@@ -8463,7 +8463,7 @@
       <c r="I80" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="K80" t="s">
@@ -8502,7 +8502,7 @@
       <c r="I81" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="K81" t="s">
@@ -8538,7 +8538,7 @@
       <c r="I82" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="K82" t="s">
@@ -8574,7 +8574,7 @@
       <c r="I83" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="K83" t="s">
@@ -8607,7 +8607,7 @@
       <c r="I84" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="1" t="s">
         <v>1232</v>
       </c>
       <c r="K84" t="s">
@@ -8640,7 +8640,7 @@
       <c r="I85" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="K85" t="s">
@@ -8670,7 +8670,7 @@
       <c r="I86" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="K86" t="s">
@@ -8700,7 +8700,7 @@
       <c r="I87" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="K87" t="s">
@@ -8730,7 +8730,7 @@
       <c r="I88" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="K88" t="s">
@@ -8760,7 +8760,7 @@
       <c r="I89" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="K89" t="s">
@@ -8787,7 +8787,7 @@
       <c r="I90" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="K90" t="s">
@@ -8814,7 +8814,7 @@
       <c r="I91" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="K91" t="s">
@@ -8841,7 +8841,7 @@
       <c r="I92" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="K92" t="s">
@@ -8868,7 +8868,7 @@
       <c r="I93" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="K93" t="s">
@@ -8895,7 +8895,7 @@
       <c r="I94" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="K94" t="s">
@@ -8922,7 +8922,7 @@
       <c r="I95" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="K95" t="s">
@@ -8949,7 +8949,7 @@
       <c r="I96" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="1" t="s">
         <v>1244</v>
       </c>
       <c r="K96" t="s">
@@ -8976,7 +8976,7 @@
       <c r="I97" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="K97" t="s">
@@ -9003,7 +9003,7 @@
       <c r="I98" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="K98" t="s">
@@ -9030,7 +9030,7 @@
       <c r="I99" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="K99" t="s">
@@ -9057,7 +9057,7 @@
       <c r="I100" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="K100" t="s">
@@ -9084,7 +9084,7 @@
       <c r="I101" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="K101" t="s">
@@ -9111,7 +9111,7 @@
       <c r="I102" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="K102" t="s">
@@ -9138,7 +9138,7 @@
       <c r="I103" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="K103" t="s">
@@ -9165,7 +9165,7 @@
       <c r="I104" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="K104" t="s">
@@ -9192,7 +9192,7 @@
       <c r="I105" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="K105" t="s">
@@ -9219,7 +9219,7 @@
       <c r="I106" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="K106" t="s">
@@ -9246,7 +9246,7 @@
       <c r="I107" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="K107" t="s">
@@ -9273,7 +9273,7 @@
       <c r="I108" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="K108" t="s">
@@ -9300,7 +9300,7 @@
       <c r="I109" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="K109" t="s">
@@ -9324,7 +9324,7 @@
       <c r="I110" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="K110" t="s">
@@ -9348,7 +9348,7 @@
       <c r="I111" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="K111" t="s">
@@ -9372,7 +9372,7 @@
       <c r="I112" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="K112" t="s">
@@ -9396,7 +9396,7 @@
       <c r="I113" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="K113" t="s">
@@ -9420,7 +9420,7 @@
       <c r="I114" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="K114" t="s">
@@ -9444,7 +9444,7 @@
       <c r="I115" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="K115" t="s">
@@ -9468,7 +9468,7 @@
       <c r="I116" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="K116" t="s">
@@ -9492,7 +9492,7 @@
       <c r="I117" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="K117" t="s">
@@ -9516,7 +9516,7 @@
       <c r="I118" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="K118" t="s">
@@ -9540,7 +9540,7 @@
       <c r="I119" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="K119" t="s">
@@ -9564,7 +9564,7 @@
       <c r="I120" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="K120" t="s">
@@ -9588,7 +9588,7 @@
       <c r="I121" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="K121" t="s">
@@ -9612,7 +9612,7 @@
       <c r="I122" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="K122" t="s">
@@ -9636,7 +9636,7 @@
       <c r="I123" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="K123" t="s">
@@ -9660,7 +9660,7 @@
       <c r="I124" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="K124" t="s">
@@ -9684,7 +9684,7 @@
       <c r="I125" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="K125" t="s">
@@ -9708,7 +9708,7 @@
       <c r="I126" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="K126" t="s">
@@ -9732,7 +9732,7 @@
       <c r="I127" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="K127" t="s">
@@ -9756,7 +9756,7 @@
       <c r="I128" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="K128" t="s">
@@ -9780,7 +9780,7 @@
       <c r="I129" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="K129" t="s">
@@ -9804,7 +9804,7 @@
       <c r="I130" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="K130" t="s">
@@ -9828,7 +9828,7 @@
       <c r="I131" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="K131" t="s">
@@ -9852,7 +9852,7 @@
       <c r="I132" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="K132" t="s">
@@ -9876,7 +9876,7 @@
       <c r="I133" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="K133" t="s">
@@ -9900,7 +9900,7 @@
       <c r="I134" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="K134" t="s">
@@ -9924,7 +9924,7 @@
       <c r="I135" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="K135" t="s">
@@ -9948,7 +9948,7 @@
       <c r="I136" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="K136" t="s">
@@ -9972,7 +9972,7 @@
       <c r="I137" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="K137" t="s">
@@ -9996,7 +9996,7 @@
       <c r="I138" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="K138" t="s">
@@ -10020,7 +10020,7 @@
       <c r="I139" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="K139" t="s">
@@ -10044,7 +10044,7 @@
       <c r="I140" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="K140" t="s">
@@ -10068,7 +10068,7 @@
       <c r="I141" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="K141" t="s">
@@ -10089,7 +10089,7 @@
       <c r="I142" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="K142" t="s">
@@ -10110,7 +10110,7 @@
       <c r="I143" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="K143" t="s">
@@ -10131,7 +10131,7 @@
       <c r="I144" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="K144" t="s">
@@ -10152,7 +10152,7 @@
       <c r="I145" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="K145" t="s">
@@ -10173,7 +10173,7 @@
       <c r="I146" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="K146" t="s">
@@ -10194,7 +10194,7 @@
       <c r="I147" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="K147" t="s">
@@ -10212,7 +10212,7 @@
       <c r="I148" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="K148" t="s">
@@ -10230,7 +10230,7 @@
       <c r="I149" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="K149" t="s">
@@ -10248,7 +10248,7 @@
       <c r="I150" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="K150" t="s">
@@ -10266,7 +10266,7 @@
       <c r="I151" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="K151" t="s">
@@ -10278,7 +10278,7 @@
       <c r="H152" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="K152" t="s">
@@ -10290,7 +10290,7 @@
       <c r="H153" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="K153" t="s">
@@ -10302,7 +10302,7 @@
       <c r="H154" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="K154" t="s">
@@ -10314,7 +10314,7 @@
       <c r="H155" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="K155" t="s">
@@ -10326,7 +10326,7 @@
       <c r="H156" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="K156" t="s">
@@ -10338,7 +10338,7 @@
       <c r="H157" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="K157" t="s">
@@ -10350,7 +10350,7 @@
       <c r="H158" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="K158" t="s">
@@ -10362,7 +10362,7 @@
       <c r="H159" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="K159" t="s">
@@ -10374,7 +10374,7 @@
       <c r="H160" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="K160" t="s">
@@ -10386,7 +10386,7 @@
       <c r="H161" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="K161" t="s">
@@ -10398,7 +10398,7 @@
       <c r="H162" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" s="1" t="s">
         <v>1310</v>
       </c>
       <c r="K162" t="s">
@@ -10410,7 +10410,7 @@
       <c r="H163" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="K163" t="s">
@@ -10422,7 +10422,7 @@
       <c r="H164" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="K164" t="s">
@@ -10434,7 +10434,7 @@
       <c r="H165" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="K165" t="s">

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="41850" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="44640" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5232,7 +5232,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K179" sqref="K179"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5247,7 @@
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
     <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5283,7 +5283,7 @@
       <c r="J1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>513</v>
       </c>
       <c r="L1" t="s">
@@ -5325,7 +5325,7 @@
       <c r="J2" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="L2" t="s">
@@ -5367,7 +5367,7 @@
       <c r="J3" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="L3" t="s">
@@ -5409,7 +5409,7 @@
       <c r="J4" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="L4" t="s">
@@ -5451,7 +5451,7 @@
       <c r="J5" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="L5" t="s">
@@ -5493,7 +5493,7 @@
       <c r="J6" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>1318</v>
       </c>
       <c r="L6" t="s">
@@ -5535,7 +5535,7 @@
       <c r="J7" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="L7" t="s">
@@ -5577,7 +5577,7 @@
       <c r="J8" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="L8" t="s">
@@ -5619,7 +5619,7 @@
       <c r="J9" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="L9" t="s">
@@ -5661,7 +5661,7 @@
       <c r="J10" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>1322</v>
       </c>
       <c r="L10" t="s">
@@ -5703,7 +5703,7 @@
       <c r="J11" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="L11" t="s">
@@ -5745,7 +5745,7 @@
       <c r="J12" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="L12" t="s">
@@ -5787,7 +5787,7 @@
       <c r="J13" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>1325</v>
       </c>
       <c r="L13" t="s">
@@ -5829,7 +5829,7 @@
       <c r="J14" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="L14" t="s">
@@ -5871,7 +5871,7 @@
       <c r="J15" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="L15" t="s">
@@ -5913,7 +5913,7 @@
       <c r="J16" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="L16" t="s">
@@ -5955,7 +5955,7 @@
       <c r="J17" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="L17" t="s">
@@ -5997,7 +5997,7 @@
       <c r="J18" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="L18" t="s">
@@ -6039,7 +6039,7 @@
       <c r="J19" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="L19" t="s">
@@ -6081,7 +6081,7 @@
       <c r="J20" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="L20" t="s">
@@ -6123,7 +6123,7 @@
       <c r="J21" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="L21" t="s">
@@ -6165,7 +6165,7 @@
       <c r="J22" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="L22" t="s">
@@ -6207,7 +6207,7 @@
       <c r="J23" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="L23" t="s">
@@ -6249,7 +6249,7 @@
       <c r="J24" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="L24" t="s">
@@ -6291,7 +6291,7 @@
       <c r="J25" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>1337</v>
       </c>
       <c r="L25" t="s">
@@ -6333,7 +6333,7 @@
       <c r="J26" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="L26" t="s">
@@ -6375,7 +6375,7 @@
       <c r="J27" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>1339</v>
       </c>
       <c r="L27" t="s">
@@ -6417,7 +6417,7 @@
       <c r="J28" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="L28" t="s">
@@ -6459,7 +6459,7 @@
       <c r="J29" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="L29" t="s">
@@ -6501,7 +6501,7 @@
       <c r="J30" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>1342</v>
       </c>
       <c r="L30" t="s">
@@ -6543,7 +6543,7 @@
       <c r="J31" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="L31" t="s">
@@ -6585,7 +6585,7 @@
       <c r="J32" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="L32" t="s">
@@ -6627,7 +6627,7 @@
       <c r="J33" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="L33" t="s">
@@ -6669,7 +6669,7 @@
       <c r="J34" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>1346</v>
       </c>
       <c r="L34" t="s">
@@ -6711,7 +6711,7 @@
       <c r="J35" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="M35" t="s">
@@ -6750,7 +6750,7 @@
       <c r="J36" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="M36" t="s">
@@ -6789,7 +6789,7 @@
       <c r="J37" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="M37" t="s">
@@ -6828,7 +6828,7 @@
       <c r="J38" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="M38" t="s">
@@ -6867,7 +6867,7 @@
       <c r="J39" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="M39" t="s">
@@ -6906,7 +6906,7 @@
       <c r="J40" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="M40" t="s">
@@ -6945,7 +6945,7 @@
       <c r="J41" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="M41" t="s">
@@ -6984,7 +6984,7 @@
       <c r="J42" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="M42" t="s">
@@ -7023,7 +7023,7 @@
       <c r="J43" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="M43" t="s">
@@ -7062,7 +7062,7 @@
       <c r="J44" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>1356</v>
       </c>
       <c r="M44" t="s">
@@ -7101,7 +7101,7 @@
       <c r="J45" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="M45" t="s">
@@ -7140,7 +7140,7 @@
       <c r="J46" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="M46" t="s">
@@ -7179,7 +7179,7 @@
       <c r="J47" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="M47" t="s">
@@ -7218,7 +7218,7 @@
       <c r="J48" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="M48" t="s">
@@ -7257,7 +7257,7 @@
       <c r="J49" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>1361</v>
       </c>
       <c r="M49" t="s">
@@ -7296,7 +7296,7 @@
       <c r="J50" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="M50" t="s">
@@ -7335,7 +7335,7 @@
       <c r="J51" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="M51" t="s">
@@ -7374,7 +7374,7 @@
       <c r="J52" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="M52" t="s">
@@ -7413,7 +7413,7 @@
       <c r="J53" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="M53" t="s">
@@ -7452,7 +7452,7 @@
       <c r="J54" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="M54" t="s">
@@ -7491,7 +7491,7 @@
       <c r="J55" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="M55" t="s">
@@ -7530,7 +7530,7 @@
       <c r="J56" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="M56" t="s">
@@ -7569,7 +7569,7 @@
       <c r="J57" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="M57" t="s">
@@ -7608,7 +7608,7 @@
       <c r="J58" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>1370</v>
       </c>
       <c r="M58" t="s">
@@ -7647,7 +7647,7 @@
       <c r="J59" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="M59" t="s">
@@ -7686,7 +7686,7 @@
       <c r="J60" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="M60" t="s">
@@ -7725,7 +7725,7 @@
       <c r="J61" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="M61" t="s">
@@ -7764,7 +7764,7 @@
       <c r="J62" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="M62" t="s">
@@ -7803,7 +7803,7 @@
       <c r="J63" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="M63" t="s">
@@ -7842,7 +7842,7 @@
       <c r="J64" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="M64" t="s">
@@ -7881,7 +7881,7 @@
       <c r="J65" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>1377</v>
       </c>
       <c r="M65" t="s">
@@ -7920,7 +7920,7 @@
       <c r="J66" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="M66" t="s">
@@ -7959,7 +7959,7 @@
       <c r="J67" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="1" t="s">
         <v>1379</v>
       </c>
       <c r="M67" t="s">
@@ -7998,7 +7998,7 @@
       <c r="J68" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="M68" t="s">
@@ -8037,7 +8037,7 @@
       <c r="J69" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="1" t="s">
         <v>1381</v>
       </c>
       <c r="M69" t="s">
@@ -8076,7 +8076,7 @@
       <c r="J70" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="M70" t="s">
@@ -8115,7 +8115,7 @@
       <c r="J71" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="M71" t="s">
@@ -8154,7 +8154,7 @@
       <c r="J72" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="M72" t="s">
@@ -8193,7 +8193,7 @@
       <c r="J73" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="M73" t="s">
@@ -8232,7 +8232,7 @@
       <c r="J74" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="M74" t="s">
@@ -8271,7 +8271,7 @@
       <c r="J75" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="1" t="s">
         <v>1387</v>
       </c>
       <c r="M75" t="s">
@@ -8310,7 +8310,7 @@
       <c r="J76" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="M76" t="s">
@@ -8349,7 +8349,7 @@
       <c r="J77" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="1" t="s">
         <v>1389</v>
       </c>
       <c r="M77" t="s">
@@ -8388,7 +8388,7 @@
       <c r="J78" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="M78" t="s">
@@ -8427,7 +8427,7 @@
       <c r="J79" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="1" t="s">
         <v>1391</v>
       </c>
       <c r="M79" t="s">
@@ -8466,7 +8466,7 @@
       <c r="J80" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="M80" t="s">
@@ -8505,7 +8505,7 @@
       <c r="J81" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="M81" t="s">
@@ -8541,7 +8541,7 @@
       <c r="J82" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1" t="s">
         <v>1394</v>
       </c>
       <c r="M82" t="s">
@@ -8577,7 +8577,7 @@
       <c r="J83" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="1" t="s">
         <v>1395</v>
       </c>
       <c r="M83" t="s">
@@ -8610,7 +8610,7 @@
       <c r="J84" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="M84" t="s">
@@ -8643,7 +8643,7 @@
       <c r="J85" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="M85" t="s">
@@ -8673,7 +8673,7 @@
       <c r="J86" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="M86" t="s">
@@ -8703,7 +8703,7 @@
       <c r="J87" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="M87" t="s">
@@ -8733,7 +8733,7 @@
       <c r="J88" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="M88" t="s">
@@ -8763,7 +8763,7 @@
       <c r="J89" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="1" t="s">
         <v>1401</v>
       </c>
       <c r="N89" s="2"/>
@@ -8790,7 +8790,7 @@
       <c r="J90" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="N90" s="2"/>
@@ -8817,7 +8817,7 @@
       <c r="J91" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="N91" s="2"/>
@@ -8844,7 +8844,7 @@
       <c r="J92" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="1" t="s">
         <v>1404</v>
       </c>
       <c r="N92" s="2"/>
@@ -8871,7 +8871,7 @@
       <c r="J93" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="N93" s="2"/>
@@ -8898,7 +8898,7 @@
       <c r="J94" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="N94" s="2"/>
@@ -8925,7 +8925,7 @@
       <c r="J95" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="N95" s="2"/>
@@ -8952,7 +8952,7 @@
       <c r="J96" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="N96" s="2"/>
@@ -8979,7 +8979,7 @@
       <c r="J97" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="N97" s="2"/>
@@ -9006,7 +9006,7 @@
       <c r="J98" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="N98" s="2"/>
@@ -9033,7 +9033,7 @@
       <c r="J99" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="N99" s="2"/>
@@ -9060,7 +9060,7 @@
       <c r="J100" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="N100" s="2"/>
@@ -9087,7 +9087,7 @@
       <c r="J101" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="1" t="s">
         <v>1413</v>
       </c>
       <c r="N101" s="2"/>
@@ -9114,7 +9114,7 @@
       <c r="J102" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="N102" s="2"/>
@@ -9141,7 +9141,7 @@
       <c r="J103" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="N103" s="2"/>
@@ -9168,7 +9168,7 @@
       <c r="J104" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="N104" s="2"/>
@@ -9195,7 +9195,7 @@
       <c r="J105" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="N105" s="2"/>
@@ -9222,7 +9222,7 @@
       <c r="J106" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="1" t="s">
         <v>1418</v>
       </c>
       <c r="N106" s="2"/>
@@ -9249,7 +9249,7 @@
       <c r="J107" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="N107" s="2"/>
@@ -9276,7 +9276,7 @@
       <c r="J108" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="N108" s="2"/>
@@ -9303,7 +9303,7 @@
       <c r="J109" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="N109" s="2"/>
@@ -9327,7 +9327,7 @@
       <c r="J110" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="N110" s="2"/>
@@ -9351,7 +9351,7 @@
       <c r="J111" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K111" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="N111" s="2"/>
@@ -9375,7 +9375,7 @@
       <c r="J112" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="N112" s="2"/>
@@ -9399,7 +9399,7 @@
       <c r="J113" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="N113" s="2"/>
@@ -9423,7 +9423,7 @@
       <c r="J114" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="N114" s="2"/>
@@ -9447,7 +9447,7 @@
       <c r="J115" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="N115" s="2"/>
@@ -9471,7 +9471,7 @@
       <c r="J116" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="N116" s="2"/>
@@ -9495,7 +9495,7 @@
       <c r="J117" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="N117" s="2"/>
@@ -9519,7 +9519,7 @@
       <c r="J118" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="N118" s="2"/>
@@ -9543,7 +9543,7 @@
       <c r="J119" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="N119" s="2"/>
@@ -9567,7 +9567,7 @@
       <c r="J120" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="N120" s="2"/>
@@ -9591,7 +9591,7 @@
       <c r="J121" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="N121" s="2"/>
@@ -9615,7 +9615,7 @@
       <c r="J122" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="N122" s="2"/>
@@ -9639,7 +9639,7 @@
       <c r="J123" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="N123" s="2"/>
@@ -9663,7 +9663,7 @@
       <c r="J124" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="N124" s="2"/>
@@ -9687,7 +9687,7 @@
       <c r="J125" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="N125" s="2"/>
@@ -9711,7 +9711,7 @@
       <c r="J126" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="N126" s="2"/>
@@ -9735,7 +9735,7 @@
       <c r="J127" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="N127" s="2"/>
@@ -9759,7 +9759,7 @@
       <c r="J128" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="N128" s="2"/>
@@ -9783,7 +9783,7 @@
       <c r="J129" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="N129" s="2"/>
@@ -9807,7 +9807,7 @@
       <c r="J130" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="N130" s="2"/>
@@ -9831,7 +9831,7 @@
       <c r="J131" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="1" t="s">
         <v>1443</v>
       </c>
       <c r="N131" s="2"/>
@@ -9855,7 +9855,7 @@
       <c r="J132" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="N132" s="2"/>
@@ -9879,7 +9879,7 @@
       <c r="J133" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="N133" s="2"/>
@@ -9903,7 +9903,7 @@
       <c r="J134" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="N134" s="2"/>
@@ -9927,7 +9927,7 @@
       <c r="J135" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="N135" s="2"/>
@@ -9951,7 +9951,7 @@
       <c r="J136" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="1" t="s">
         <v>1448</v>
       </c>
       <c r="N136" s="2"/>
@@ -9975,7 +9975,7 @@
       <c r="J137" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="N137" s="2"/>
@@ -9999,7 +9999,7 @@
       <c r="J138" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K138" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="N138" s="2"/>
@@ -10023,7 +10023,7 @@
       <c r="J139" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K139" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="N139" s="2"/>
@@ -10047,7 +10047,7 @@
       <c r="J140" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="N140" s="2"/>
@@ -10071,7 +10071,7 @@
       <c r="J141" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="N141" s="2"/>
@@ -10092,7 +10092,7 @@
       <c r="J142" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="N142" s="2"/>
@@ -10113,7 +10113,7 @@
       <c r="J143" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="N143" s="2"/>
@@ -10134,7 +10134,7 @@
       <c r="J144" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="N144" s="2"/>
@@ -10155,7 +10155,7 @@
       <c r="J145" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="N145" s="2"/>
@@ -10176,7 +10176,7 @@
       <c r="J146" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="N146" s="2"/>
@@ -10197,7 +10197,7 @@
       <c r="J147" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="N147" s="2"/>
@@ -10215,7 +10215,7 @@
       <c r="J148" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="N148" s="2"/>
@@ -10233,7 +10233,7 @@
       <c r="J149" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="1" t="s">
         <v>1461</v>
       </c>
       <c r="N149" s="2"/>
@@ -10251,7 +10251,7 @@
       <c r="J150" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="N150" s="2"/>
@@ -10269,7 +10269,7 @@
       <c r="J151" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="1" t="s">
         <v>1463</v>
       </c>
       <c r="N151" s="2"/>
@@ -10281,7 +10281,7 @@
       <c r="J152" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K152" s="1" t="s">
         <v>1464</v>
       </c>
       <c r="N152" s="2"/>
@@ -10293,7 +10293,7 @@
       <c r="J153" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="N153" s="2"/>
@@ -10305,7 +10305,7 @@
       <c r="J154" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="N154" s="2"/>
@@ -10317,7 +10317,7 @@
       <c r="J155" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="N155" s="2"/>
@@ -10329,7 +10329,7 @@
       <c r="J156" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="N156" s="2"/>
@@ -10341,7 +10341,7 @@
       <c r="J157" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="N157" s="2"/>
@@ -10353,7 +10353,7 @@
       <c r="J158" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="1" t="s">
         <v>1470</v>
       </c>
       <c r="N158" s="2"/>
@@ -10365,7 +10365,7 @@
       <c r="J159" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="N159" s="2"/>
@@ -10377,7 +10377,7 @@
       <c r="J160" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160" s="1" t="s">
         <v>1472</v>
       </c>
       <c r="N160" s="2"/>
@@ -10389,7 +10389,7 @@
       <c r="J161" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="N161" s="2"/>
@@ -10401,7 +10401,7 @@
       <c r="J162" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K162" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="N162" s="2"/>
@@ -10413,7 +10413,7 @@
       <c r="J163" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K163" s="1" t="s">
         <v>1475</v>
       </c>
       <c r="N163" s="2"/>
@@ -10425,7 +10425,7 @@
       <c r="J164" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K164" s="1" t="s">
         <v>1476</v>
       </c>
       <c r="N164" s="2"/>
@@ -10437,7 +10437,7 @@
       <c r="J165" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K165" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="N165" s="2"/>
@@ -10446,7 +10446,7 @@
       <c r="H166" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="K166" t="s">
+      <c r="K166" s="1" t="s">
         <v>1478</v>
       </c>
       <c r="N166" s="2"/>
@@ -10455,7 +10455,7 @@
       <c r="H167" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="K167" t="s">
+      <c r="K167" s="1" t="s">
         <v>1479</v>
       </c>
       <c r="N167" s="2"/>
@@ -10464,7 +10464,7 @@
       <c r="H168" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K168" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="N168" s="2"/>
@@ -10473,7 +10473,7 @@
       <c r="H169" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="K169" t="s">
+      <c r="K169" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="N169" s="2"/>
@@ -10482,7 +10482,7 @@
       <c r="H170" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="K170" t="s">
+      <c r="K170" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="N170" s="2"/>
@@ -10491,7 +10491,7 @@
       <c r="H171" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K171" s="1" t="s">
         <v>1483</v>
       </c>
       <c r="N171" s="2"/>
@@ -10500,7 +10500,7 @@
       <c r="H172" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="K172" t="s">
+      <c r="K172" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="N172" s="2"/>
@@ -10509,7 +10509,7 @@
       <c r="H173" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="K173" t="s">
+      <c r="K173" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="N173" s="2"/>
@@ -10518,7 +10518,7 @@
       <c r="H174" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="K174" t="s">
+      <c r="K174" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="N174" s="2"/>
@@ -10527,7 +10527,7 @@
       <c r="H175" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="K175" t="s">
+      <c r="K175" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="N175" s="2"/>
@@ -10536,7 +10536,7 @@
       <c r="H176" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="K176" t="s">
+      <c r="K176" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="N176" s="2"/>
@@ -10545,7 +10545,7 @@
       <c r="H177" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K177" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="N177" s="2"/>
@@ -10554,7 +10554,7 @@
       <c r="H178" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="K178" t="s">
+      <c r="K178" s="1" t="s">
         <v>1490</v>
       </c>
       <c r="N178" s="2"/>
@@ -10563,7 +10563,7 @@
       <c r="H179" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="K179" t="s">
+      <c r="K179" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="N179" s="2"/>

--- a/SOA VP.xlsx
+++ b/SOA VP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="44640" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="47430" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4871,7 +4871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4893,6 +4893,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4938,18 +4946,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5231,23 +5242,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5286,10 +5297,10 @@
       <c r="K1" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>515</v>
       </c>
       <c r="N1" s="2"/>
@@ -5328,10 +5339,10 @@
       <c r="K2" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="N2" s="2"/>
@@ -5370,10 +5381,10 @@
       <c r="K3" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="N3" s="2"/>
@@ -5412,10 +5423,10 @@
       <c r="K4" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>1527</v>
       </c>
       <c r="N4" s="2"/>
@@ -5454,10 +5465,10 @@
       <c r="K5" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="N5" s="2"/>
@@ -5496,10 +5507,10 @@
       <c r="K6" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>1529</v>
       </c>
       <c r="N6" s="2"/>
@@ -5538,10 +5549,10 @@
       <c r="K7" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="N7" s="2"/>
@@ -5580,10 +5591,10 @@
       <c r="K8" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="N8" s="2"/>
@@ -5622,10 +5633,10 @@
       <c r="K9" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="N9" s="2"/>
@@ -5664,10 +5675,10 @@
       <c r="K10" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="N10" s="2"/>
@@ -5706,10 +5717,10 @@
       <c r="K11" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="N11" s="2"/>
@@ -5748,10 +5759,10 @@
       <c r="K12" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="N12" s="2"/>
@@ -5790,10 +5801,10 @@
       <c r="K13" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="N13" s="2"/>
@@ -5832,10 +5843,10 @@
       <c r="K14" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="N14" s="2"/>
@@ -5874,10 +5885,10 @@
       <c r="K15" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="N15" s="2"/>
@@ -5916,10 +5927,10 @@
       <c r="K16" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="N16" s="2"/>
@@ -5958,10 +5969,10 @@
       <c r="K17" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="N17" s="2"/>
@@ -6000,10 +6011,10 @@
       <c r="K18" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="N18" s="2"/>
@@ -6042,10 +6053,10 @@
       <c r="K19" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="N19" s="2"/>
@@ -6084,10 +6095,10 @@
       <c r="K20" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="N20" s="2"/>
@@ -6126,10 +6137,10 @@
       <c r="K21" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="N21" s="2"/>
@@ -6168,10 +6179,10 @@
       <c r="K22" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="N22" s="2"/>
@@ -6210,10 +6221,10 @@
       <c r="K23" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="N23" s="2"/>
@@ -6252,10 +6263,10 @@
       <c r="K24" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="N24" s="2"/>
@@ -6294,10 +6305,10 @@
       <c r="K25" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="N25" s="2"/>
@@ -6336,10 +6347,10 @@
       <c r="K26" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="N26" s="2"/>
@@ -6378,10 +6389,10 @@
       <c r="K27" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="N27" s="2"/>
@@ -6420,10 +6431,10 @@
       <c r="K28" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="N28" s="2"/>
@@ -6462,10 +6473,10 @@
       <c r="K29" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>1552</v>
       </c>
       <c r="N29" s="2"/>
@@ -6504,10 +6515,10 @@
       <c r="K30" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="N30" s="2"/>
@@ -6546,10 +6557,10 @@
       <c r="K31" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="N31" s="2"/>
@@ -6588,10 +6599,10 @@
       <c r="K32" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>1555</v>
       </c>
       <c r="N32" s="2"/>
@@ -6630,10 +6641,10 @@
       <c r="K33" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="N33" s="2"/>
@@ -6672,10 +6683,10 @@
       <c r="K34" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="N34" s="2"/>
@@ -6714,7 +6725,7 @@
       <c r="K35" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="N35" s="2"/>
@@ -6753,7 +6764,7 @@
       <c r="K36" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="N36" s="2"/>
@@ -6792,7 +6803,7 @@
       <c r="K37" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="N37" s="2"/>
@@ -6831,7 +6842,7 @@
       <c r="K38" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="N38" s="2"/>
@@ -6870,7 +6881,7 @@
       <c r="K39" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="N39" s="2"/>
@@ -6909,7 +6920,7 @@
       <c r="K40" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="N40" s="2"/>
@@ -6948,7 +6959,7 @@
       <c r="K41" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="N41" s="2"/>
@@ -6987,7 +6998,7 @@
       <c r="K42" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="N42" s="2"/>
@@ -7026,7 +7037,7 @@
       <c r="K43" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="N43" s="2"/>
@@ -7065,7 +7076,7 @@
       <c r="K44" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>1567</v>
       </c>
       <c r="N44" s="2"/>
@@ -7104,7 +7115,7 @@
       <c r="K45" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N45" s="2"/>
@@ -7143,7 +7154,7 @@
       <c r="K46" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="N46" s="2"/>
@@ -7182,7 +7193,7 @@
       <c r="K47" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="N47" s="2"/>
@@ -7221,7 +7232,7 @@
       <c r="K48" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>1571</v>
       </c>
       <c r="N48" s="2"/>
@@ -7260,7 +7271,7 @@
       <c r="K49" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="N49" s="2"/>
@@ -7299,7 +7310,7 @@
       <c r="K50" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="N50" s="2"/>
@@ -7338,7 +7349,7 @@
       <c r="K51" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="N51" s="2"/>
@@ -7377,7 +7388,7 @@
       <c r="K52" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="N52" s="2"/>
@@ -7416,7 +7427,7 @@
       <c r="K53" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="N53" s="2"/>
@@ -7455,7 +7466,7 @@
       <c r="K54" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="N54" s="2"/>
@@ -7494,7 +7505,7 @@
       <c r="K55" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="N55" s="2"/>
@@ -7533,7 +7544,7 @@
       <c r="K56" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>1579</v>
       </c>
       <c r="N56" s="2"/>
@@ -7572,7 +7583,7 @@
       <c r="K57" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="N57" s="2"/>
@@ -7611,7 +7622,7 @@
       <c r="K58" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="N58" s="2"/>
@@ -7650,7 +7661,7 @@
       <c r="K59" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="N59" s="2"/>
@@ -7689,7 +7700,7 @@
       <c r="K60" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="N60" s="2"/>
@@ -7728,7 +7739,7 @@
       <c r="K61" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="N61" s="2"/>
@@ -7767,7 +7778,7 @@
       <c r="K62" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="N62" s="2"/>
@@ -7806,7 +7817,7 @@
       <c r="K63" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="N63" s="2"/>
@@ -7845,7 +7856,7 @@
       <c r="K64" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="N64" s="2"/>
@@ -7884,7 +7895,7 @@
       <c r="K65" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="N65" s="2"/>
@@ -7923,7 +7934,7 @@
       <c r="K66" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="N66" s="2"/>
@@ -7962,7 +7973,7 @@
       <c r="K67" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="N67" s="2"/>
@@ -8001,7 +8012,7 @@
       <c r="K68" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="N68" s="2"/>
@@ -8040,7 +8051,7 @@
       <c r="K69" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="N69" s="2"/>
@@ -8079,7 +8090,7 @@
       <c r="K70" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="N70" s="2"/>
@@ -8118,7 +8129,7 @@
       <c r="K71" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="N71" s="2"/>
@@ -8157,7 +8168,7 @@
       <c r="K72" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="N72" s="2"/>
@@ -8196,7 +8207,7 @@
       <c r="K73" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="1" t="s">
         <v>1596</v>
       </c>
       <c r="N73" s="2"/>
@@ -8235,7 +8246,7 @@
       <c r="K74" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="N74" s="2"/>
@@ -8274,7 +8285,7 @@
       <c r="K75" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="N75" s="2"/>
@@ -8313,7 +8324,7 @@
       <c r="K76" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="N76" s="2"/>
@@ -8352,7 +8363,7 @@
       <c r="K77" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="N77" s="2"/>
@@ -8391,7 +8402,7 @@
       <c r="K78" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="N78" s="2"/>
@@ -8430,7 +8441,7 @@
       <c r="K79" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="N79" s="2"/>
@@ -8469,7 +8480,7 @@
       <c r="K80" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="N80" s="2"/>
@@ -8508,7 +8519,7 @@
       <c r="K81" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="N81" s="2"/>
@@ -8544,7 +8555,7 @@
       <c r="K82" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="N82" s="2"/>
@@ -8580,7 +8591,7 @@
       <c r="K83" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="N83" s="2"/>
@@ -8613,7 +8624,7 @@
       <c r="K84" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="N84" s="2"/>
@@ -8646,7 +8657,7 @@
       <c r="K85" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="N85" s="2"/>
@@ -8676,7 +8687,7 @@
       <c r="K86" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="N86" s="2"/>
@@ -8706,7 +8717,7 @@
       <c r="K87" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="N87" s="2"/>
@@ -8736,7 +8747,7 @@
       <c r="K88" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="N88" s="2"/>
@@ -10759,8 +10770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10769,11 +10780,14 @@
       <c r="A1" t="s">
         <v>1613</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1614</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>